--- a/RearVD.xlsx
+++ b/RearVD.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\timot\Documents\Projects\Git\Wishbone-Forces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{04E5AC36-C56A-4433-A576-9B95D0462551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A302DC-4856-41A9-95E8-6279B3AB43C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OutputForces" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -178,7 +191,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -683,9 +696,6 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -694,6 +704,9 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1048,11 +1061,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1731,313 +1744,313 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>210000000000</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>240000000</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
+      <c r="H18" s="10"/>
+      <c r="I18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="3" t="s">
+      <c r="J18" s="10"/>
+      <c r="K18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N18" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>275</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>278</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>391</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>436</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="4">
         <v>584</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <v>329</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="N19" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>2</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>5</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>5</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <v>5</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>5</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="4">
         <v>5</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="4">
         <v>5</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="N20" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>2</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="7">
-        <f t="shared" ref="G21:L21" si="0">-G14*(G19/1000)^2/(PI()^2*$C$17)</f>
-        <v>4.9298814432097129E-11</v>
-      </c>
-      <c r="H21" s="7">
+      <c r="G21" s="6">
+        <f>-G14*(G19/1000)^2/(PI()^2*$C$17/$C$20)</f>
+        <v>9.8597628864194258E-11</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" ref="H21:L21" si="0">-H14*(H19/1000)^2/(PI()^2*$C$17/$C$20)</f>
+        <v>8.6360836905796107E-11</v>
+      </c>
+      <c r="I21" s="6">
         <f t="shared" si="0"/>
-        <v>4.3180418452898054E-11</v>
-      </c>
-      <c r="I21" s="7">
+        <v>2.6418367293027706E-10</v>
+      </c>
+      <c r="J21" s="6">
         <f t="shared" si="0"/>
-        <v>1.3209183646513853E-10</v>
-      </c>
-      <c r="J21" s="7">
+        <v>9.9417415103819187E-10</v>
+      </c>
+      <c r="K21" s="6">
         <f t="shared" si="0"/>
-        <v>4.9708707551909594E-10</v>
-      </c>
-      <c r="K21" s="7">
+        <v>-3.0819967582322838E-10</v>
+      </c>
+      <c r="L21" s="6">
         <f t="shared" si="0"/>
-        <v>-1.5409983791161419E-10</v>
-      </c>
-      <c r="L21" s="7">
-        <f t="shared" si="0"/>
-        <v>3.3298922105888607E-11</v>
-      </c>
-      <c r="N21" s="8" t="s">
+        <v>6.6597844211777214E-11</v>
+      </c>
+      <c r="N21" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>2</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <f t="shared" ref="G22:J22" si="1">IF(G21&gt;0,(2*G21*$C$20/PI()+(G20/1000)^4)^0.25*1000,"Tension only")</f>
-        <v>5.1210696290174367</v>
-      </c>
-      <c r="H22" s="9">
+        <v>5.2341146249890516</v>
+      </c>
+      <c r="H22" s="8">
         <f t="shared" si="1"/>
-        <v>5.106506366807718</v>
-      </c>
-      <c r="I22" s="9">
+        <v>5.2067369261529892</v>
+      </c>
+      <c r="I22" s="8">
         <f t="shared" si="1"/>
-        <v>5.3069324723858173</v>
-      </c>
-      <c r="J22" s="9">
+        <v>5.5682989005072878</v>
+      </c>
+      <c r="J22" s="8">
         <f t="shared" si="1"/>
-        <v>5.9554210543565027</v>
-      </c>
-      <c r="K22" s="9" t="str">
+        <v>6.5942081639107819</v>
+      </c>
+      <c r="K22" s="8" t="str">
         <f>IF(K21&gt;0,(2*K21*$C$20/PI()+(K20/1000)^4)^0.25*1000,"Tension only")</f>
         <v>Tension only</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="8">
         <f>IF(L21&gt;0,(2*L21*$C$20/PI()+(L20/1000)^4)^0.25*1000,"Tension only")</f>
-        <v>5.0827195191548933</v>
+        <v>5.1615868025998717</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <f t="shared" ref="G23:L23" si="2">G15/$C$18</f>
         <v>2.0514290979276336E-6</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <f t="shared" si="2"/>
         <v>6.8211566724982921E-6</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <f t="shared" si="2"/>
         <v>1.9517626962150582E-5</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="6">
         <f t="shared" si="2"/>
         <v>1.3428210183193874E-5</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="6">
         <f t="shared" si="2"/>
         <v>5.0000214473374994E-6</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="6">
         <f t="shared" si="2"/>
         <v>3.7878500249582914E-19</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <f>(4*G23*$C$21/PI()+(G20/1000)^2)^0.5*1000</f>
         <v>5.4976286980300602</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <f t="shared" ref="H24:L24" si="3">(4*H23*$C$21/PI()+(H20/1000)^2)^0.5*1000</f>
         <v>6.5092190647202743</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <f t="shared" si="3"/>
         <v>8.6429872691794873</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="8">
         <f t="shared" si="3"/>
         <v>7.6938063687953369</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="8">
         <f t="shared" si="3"/>
         <v>6.1426745040371538</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="8">
         <f t="shared" si="3"/>
         <v>5.0000000000000968</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="9">
         <f t="shared" ref="G25:L25" si="4">MAX(G24,G22)</f>
         <v>5.4976286980300602</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="9">
         <f t="shared" si="4"/>
         <v>6.5092190647202743</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="9">
         <f t="shared" si="4"/>
         <v>8.6429872691794873</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <f t="shared" si="4"/>
         <v>7.6938063687953369</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="9">
         <f t="shared" si="4"/>
         <v>6.1426745040371538</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="9">
         <f t="shared" si="4"/>
-        <v>5.0827195191548933</v>
+        <v>5.1615868025998717</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <f>MAX(ABS(G14),ABS(G15))*$C$22</f>
         <v>2702.2163870777599</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="7">
         <f t="shared" ref="H28:N28" si="5">MAX(ABS(H14),ABS(H15))*$C$22</f>
         <v>3274.1552027991802</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="7">
         <f t="shared" si="5"/>
         <v>9368.4609418322798</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="7">
         <f t="shared" si="5"/>
         <v>10839.482004211141</v>
       </c>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8">
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7">
         <f t="shared" si="5"/>
         <v>5499.4002417148404</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="7">
         <f t="shared" si="5"/>
         <v>18777.985864804879</v>
       </c>

--- a/RearVD.xlsx
+++ b/RearVD.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,32 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\timot\Documents\Projects\Git\Wishbone-Forces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A302DC-4856-41A9-95E8-6279B3AB43C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B3132171-D359-46D9-9975-DC64464DE61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="1728" windowWidth="23040" windowHeight="12204"/>
   </bookViews>
   <sheets>
     <sheet name="OutputForces" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>Scenario</t>
   </si>
@@ -108,6 +95,9 @@
   </si>
   <si>
     <t>Corner Inner Brake Bump</t>
+  </si>
+  <si>
+    <t>Accelerate and below</t>
   </si>
   <si>
     <t>Max compression</t>
@@ -191,7 +181,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -696,6 +686,9 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -704,9 +697,6 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1061,30 +1051,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
@@ -1663,37 +1637,37 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>750</v>
       </c>
       <c r="F14">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>-1351.10819353888</v>
+        <v>-59.135406112003601</v>
       </c>
       <c r="H14">
-        <v>-1158.02062627137</v>
+        <v>200.25132491294599</v>
       </c>
       <c r="I14">
-        <v>-1790.7769821632801</v>
+        <v>-182.591149437768</v>
       </c>
       <c r="J14">
-        <v>-5419.7410021055703</v>
+        <v>-743.212781566697</v>
       </c>
       <c r="K14">
-        <v>936.473576411267</v>
-      </c>
-      <c r="L14">
-        <v>-637.61337677257302</v>
+        <v>1068.1737277131399</v>
+      </c>
+      <c r="L14" s="1">
+        <v>9.1612915170680105E-12</v>
       </c>
       <c r="M14">
-        <v>96.946732237505202</v>
+        <v>244.85769893052901</v>
       </c>
       <c r="N14">
         <v>595.44235304784195</v>
@@ -1704,363 +1678,891 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>750</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>750</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>664.70908521999104</v>
+      </c>
+      <c r="H15">
+        <v>-171.997965310795</v>
+      </c>
+      <c r="I15">
+        <v>-2533.04747224116</v>
+      </c>
+      <c r="J15">
+        <v>636.07296783575396</v>
+      </c>
+      <c r="K15">
+        <v>1068.0647777997899</v>
+      </c>
+      <c r="L15">
+        <v>198.95261820202899</v>
+      </c>
+      <c r="M15">
+        <v>793.31437571462402</v>
+      </c>
+      <c r="N15">
+        <v>3092.79491279372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>750</v>
+      </c>
+      <c r="F16">
+        <v>-200</v>
+      </c>
+      <c r="G16">
+        <v>111.76858773235701</v>
+      </c>
+      <c r="H16">
+        <v>130.72552415847699</v>
+      </c>
+      <c r="I16">
+        <v>-16.682174690643201</v>
+      </c>
+      <c r="J16">
+        <v>-636.38667119867</v>
+      </c>
+      <c r="K16">
+        <v>1068.30499605913</v>
+      </c>
+      <c r="L16">
+        <v>-239.70814036853201</v>
+      </c>
+      <c r="M16">
+        <v>96.946732237505202</v>
+      </c>
+      <c r="N16">
+        <v>622.24019855165795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>1500</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>750</v>
+      </c>
+      <c r="F17">
+        <v>-200</v>
+      </c>
+      <c r="G17">
+        <v>1559.4575703963401</v>
+      </c>
+      <c r="H17">
+        <v>-613.77305628900501</v>
+      </c>
+      <c r="I17">
+        <v>-4717.5948202974296</v>
+      </c>
+      <c r="J17">
+        <v>2122.1848276062301</v>
+      </c>
+      <c r="K17">
+        <v>1068.08709623243</v>
+      </c>
+      <c r="L17">
+        <v>158.197096035507</v>
+      </c>
+      <c r="M17">
+        <v>2032.4308784842201</v>
+      </c>
+      <c r="N17">
+        <v>6619.1209788217302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1500</v>
+      </c>
+      <c r="E18">
+        <v>750</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>-439.70980188227799</v>
+      </c>
+      <c r="H18">
+        <v>1488.9974753428</v>
+      </c>
+      <c r="I18">
+        <v>1425.5946832877401</v>
+      </c>
+      <c r="J18">
+        <v>-4602.3698967318996</v>
+      </c>
+      <c r="K18">
+        <v>1199.8738790150101</v>
+      </c>
+      <c r="L18" s="1">
+        <v>9.0908400598998995E-11</v>
+      </c>
+      <c r="M18">
+        <v>1820.67457323588</v>
+      </c>
+      <c r="N18">
+        <v>5864.3057079115097</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>1060</v>
+      </c>
+      <c r="D19">
+        <v>1060</v>
+      </c>
+      <c r="E19">
+        <v>750</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>694.95890195955496</v>
+      </c>
+      <c r="H19">
+        <v>584.85294103382103</v>
+      </c>
+      <c r="I19">
+        <v>-2368.1180972072002</v>
+      </c>
+      <c r="J19">
+        <v>-1520.95995046131</v>
+      </c>
+      <c r="K19">
+        <v>1161.08785208893</v>
+      </c>
+      <c r="L19">
+        <v>281.18636705892197</v>
+      </c>
+      <c r="M19">
+        <v>513.39898419568306</v>
+      </c>
+      <c r="N19">
+        <v>1336.4547696890399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1500</v>
+      </c>
+      <c r="E20">
+        <v>750</v>
+      </c>
+      <c r="F20">
+        <v>-200</v>
+      </c>
+      <c r="G20">
+        <v>-268.80580803791599</v>
+      </c>
+      <c r="H20">
+        <v>1419.47167458833</v>
+      </c>
+      <c r="I20">
+        <v>1591.5036580348701</v>
+      </c>
+      <c r="J20">
+        <v>-4495.5437863638699</v>
+      </c>
+      <c r="K20">
+        <v>1200.0051473609999</v>
+      </c>
+      <c r="L20">
+        <v>-239.70814036845101</v>
+      </c>
+      <c r="M20">
+        <v>1616.85560928224</v>
+      </c>
+      <c r="N20">
+        <v>5910.1436970086697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>1060</v>
+      </c>
+      <c r="D21">
+        <v>1060</v>
+      </c>
+      <c r="E21">
+        <v>750</v>
+      </c>
+      <c r="F21">
+        <v>-200</v>
+      </c>
+      <c r="G21">
+        <v>865.86289580391599</v>
+      </c>
+      <c r="H21">
+        <v>515.32714027935299</v>
+      </c>
+      <c r="I21">
+        <v>-2202.2091224600699</v>
+      </c>
+      <c r="J21">
+        <v>-1414.13384009328</v>
+      </c>
+      <c r="K21">
+        <v>1161.2191204349199</v>
+      </c>
+      <c r="L21">
+        <v>41.478226690380197</v>
+      </c>
+      <c r="M21">
+        <v>631.60494796823195</v>
+      </c>
+      <c r="N21">
+        <v>1242.9232003530999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>-1500</v>
+      </c>
+      <c r="E22">
+        <v>750</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>321.438989658271</v>
+      </c>
+      <c r="H22">
+        <v>-1088.4948255168999</v>
+      </c>
+      <c r="I22">
+        <v>-1790.7769821632801</v>
+      </c>
+      <c r="J22">
+        <v>3115.9443335985002</v>
+      </c>
+      <c r="K22">
+        <v>936.473576411267</v>
+      </c>
+      <c r="L22" s="1">
+        <v>-7.2585817564863003E-11</v>
+      </c>
+      <c r="M22">
+        <v>1330.95917537482</v>
+      </c>
+      <c r="N22">
+        <v>4735.04864403802</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>1060</v>
+      </c>
+      <c r="D23">
+        <v>-1060</v>
+      </c>
+      <c r="E23">
+        <v>750</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1232.8373813148701</v>
+      </c>
+      <c r="H23">
+        <v>-1236.5749515737</v>
+      </c>
+      <c r="I23">
+        <v>-4641.0207407926</v>
+      </c>
+      <c r="J23">
+        <v>3933.3154389721699</v>
+      </c>
+      <c r="K23">
+        <v>974.95163824894996</v>
+      </c>
+      <c r="L23">
+        <v>281.18636705880601</v>
+      </c>
+      <c r="M23">
+        <v>2270.42873909625</v>
+      </c>
+      <c r="N23">
+        <v>8252.5289400097699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>-1500</v>
+      </c>
+      <c r="E24">
+        <v>750</v>
+      </c>
+      <c r="F24">
+        <v>-200</v>
+      </c>
+      <c r="G24">
+        <v>492.34298350263202</v>
+      </c>
+      <c r="H24">
+        <v>-1158.02062627137</v>
+      </c>
+      <c r="I24">
+        <v>-1624.86800741616</v>
+      </c>
+      <c r="J24">
+        <v>3222.7704439665299</v>
+      </c>
+      <c r="K24">
+        <v>936.60484475726003</v>
+      </c>
+      <c r="L24">
+        <v>-239.70814036861401</v>
+      </c>
+      <c r="M24">
+        <v>1539.79638887957</v>
+      </c>
+      <c r="N24">
+        <v>4684.68047103956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>1060</v>
+      </c>
+      <c r="D25">
+        <v>-1060</v>
+      </c>
+      <c r="E25">
+        <v>750</v>
+      </c>
+      <c r="F25">
+        <v>-200</v>
+      </c>
+      <c r="G25">
+        <v>1403.7413751592301</v>
+      </c>
+      <c r="H25">
+        <v>-1306.1007523281701</v>
+      </c>
+      <c r="I25">
+        <v>-4475.1117660454702</v>
+      </c>
+      <c r="J25">
+        <v>4040.1415493402001</v>
+      </c>
+      <c r="K25">
+        <v>975.08290659494196</v>
+      </c>
+      <c r="L25">
+        <v>41.478226690264698</v>
+      </c>
+      <c r="M25">
+        <v>2491.7802375000801</v>
+      </c>
+      <c r="N25">
+        <v>8194.2845539849095</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
+      <c r="C26">
+        <v>-1500</v>
+      </c>
+      <c r="D26">
+        <v>-1500</v>
+      </c>
+      <c r="E26">
+        <v>750</v>
+      </c>
+      <c r="F26">
+        <v>-200</v>
+      </c>
+      <c r="G26">
+        <v>-1351.10819353888</v>
+      </c>
+      <c r="H26">
+        <v>-1306.1007523281701</v>
+      </c>
+      <c r="I26">
+        <v>-4717.5948202974296</v>
+      </c>
+      <c r="J26">
+        <v>-5419.7410021055703</v>
+      </c>
+      <c r="K26">
+        <v>936.473576411267</v>
+      </c>
+      <c r="L26">
+        <v>-637.61337677257302</v>
+      </c>
+      <c r="M26">
+        <v>96.946732237505202</v>
+      </c>
+      <c r="N26">
+        <v>595.44235304784195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
         <v>1500</v>
       </c>
-      <c r="E15">
-        <v>750</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>492.34298350263202</v>
-      </c>
-      <c r="H15">
+      <c r="D27">
+        <v>1500</v>
+      </c>
+      <c r="E27">
+        <v>750</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1559.4575703963401</v>
+      </c>
+      <c r="H27">
         <v>1637.0776013995901</v>
       </c>
-      <c r="I15">
+      <c r="I27">
         <v>4684.2304709161399</v>
       </c>
-      <c r="J15">
-        <v>3222.7704439665299</v>
-      </c>
-      <c r="K15">
+      <c r="J27">
+        <v>4040.1415493402001</v>
+      </c>
+      <c r="K27">
         <v>1200.0051473609999</v>
       </c>
-      <c r="L15" s="1">
-        <v>9.0908400598998995E-11</v>
-      </c>
-      <c r="M15">
+      <c r="L27">
+        <v>281.18636705892197</v>
+      </c>
+      <c r="M27">
         <v>2749.7001208574202</v>
       </c>
-      <c r="N15">
+      <c r="N27">
         <v>9388.9929324024397</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="3">
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="4">
         <v>210000000000</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="4">
         <v>240000000</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10" t="s">
+      <c r="G30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="2" t="s">
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="J30" s="2"/>
+      <c r="K30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="L30" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="F19" s="2" t="s">
+      <c r="N30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="4">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="5">
         <v>275</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H31" s="5">
         <v>278</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I31" s="5">
         <v>391</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J31" s="5">
         <v>436</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K31" s="5">
         <v>584</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L31" s="5">
         <v>329</v>
       </c>
-      <c r="N19" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
+      <c r="N31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="4">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5">
         <v>2</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="4">
-        <v>5</v>
-      </c>
-      <c r="H20" s="4">
-        <v>5</v>
-      </c>
-      <c r="I20" s="4">
-        <v>5</v>
-      </c>
-      <c r="J20" s="4">
-        <v>5</v>
-      </c>
-      <c r="K20" s="4">
-        <v>5</v>
-      </c>
-      <c r="L20" s="4">
-        <v>5</v>
-      </c>
-      <c r="N20" s="5" t="s">
+      <c r="F32" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="4">
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="5">
         <v>2</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="E33" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="6">
-        <f>-G14*(G19/1000)^2/(PI()^2*$C$17/$C$20)</f>
-        <v>9.8597628864194258E-11</v>
-      </c>
-      <c r="H21" s="6">
-        <f t="shared" ref="H21:L21" si="0">-H14*(H19/1000)^2/(PI()^2*$C$17/$C$20)</f>
-        <v>8.6360836905796107E-11</v>
-      </c>
-      <c r="I21" s="6">
+      <c r="F33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="7">
+        <f>-G26*(G31/1000)^2/(PI()^2*$C$29)</f>
+        <v>4.9298814432097129E-11</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" ref="H33:L33" si="0">-H26*(H31/1000)^2/(PI()^2*$C$29)</f>
+        <v>4.8702048778498245E-11</v>
+      </c>
+      <c r="I33" s="7">
         <f t="shared" si="0"/>
-        <v>2.6418367293027706E-10</v>
-      </c>
-      <c r="J21" s="6">
+        <v>3.4798066410186542E-10</v>
+      </c>
+      <c r="J33" s="7">
         <f t="shared" si="0"/>
-        <v>9.9417415103819187E-10</v>
-      </c>
-      <c r="K21" s="6">
+        <v>4.9708707551909594E-10</v>
+      </c>
+      <c r="K33" s="7">
         <f t="shared" si="0"/>
-        <v>-3.0819967582322838E-10</v>
-      </c>
-      <c r="L21" s="6">
+        <v>-1.5409983791161419E-10</v>
+      </c>
+      <c r="L33" s="7">
         <f t="shared" si="0"/>
-        <v>6.6597844211777214E-11</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
+        <v>3.3298922105888607E-11</v>
+      </c>
+      <c r="N33" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="4">
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="5">
         <v>2</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="8">
-        <f t="shared" ref="G22:J22" si="1">IF(G21&gt;0,(2*G21*$C$20/PI()+(G20/1000)^4)^0.25*1000,"Tension only")</f>
-        <v>5.2341146249890516</v>
-      </c>
-      <c r="H22" s="8">
+      <c r="F34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="9">
+        <f>IF(G33&gt;0,(2*G33*$C$32/PI()+(G32/1000)^4)^0.25*1000,"Tension only")</f>
+        <v>2.8147293941316387</v>
+      </c>
+      <c r="H34" s="9">
+        <f t="shared" ref="H34:L34" si="1">IF(H33&gt;0,(2*H33*$C$32/PI()+(H32/1000)^4)^0.25*1000,"Tension only")</f>
+        <v>2.8061723267508043</v>
+      </c>
+      <c r="I34" s="9">
         <f t="shared" si="1"/>
-        <v>5.2067369261529892</v>
-      </c>
-      <c r="I22" s="8">
+        <v>4.5879249793660195</v>
+      </c>
+      <c r="J34" s="9">
         <f t="shared" si="1"/>
-        <v>5.5682989005072878</v>
-      </c>
-      <c r="J22" s="8">
+        <v>5.0157472939534564</v>
+      </c>
+      <c r="K34" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>6.5942081639107819</v>
-      </c>
-      <c r="K22" s="8" t="str">
-        <f>IF(K21&gt;0,(2*K21*$C$20/PI()+(K20/1000)^4)^0.25*1000,"Tension only")</f>
         <v>Tension only</v>
       </c>
-      <c r="L22" s="8">
-        <f>IF(L21&gt;0,(2*L21*$C$20/PI()+(L20/1000)^4)^0.25*1000,"Tension only")</f>
-        <v>5.1615868025998717</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="L34" s="9">
+        <f t="shared" si="1"/>
+        <v>2.5517320799740491</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E35" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="6">
-        <f t="shared" ref="G23:L23" si="2">G15/$C$18</f>
-        <v>2.0514290979276336E-6</v>
-      </c>
-      <c r="H23" s="6">
-        <f t="shared" si="2"/>
+      <c r="F35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="7">
+        <f>G27/$C$30</f>
+        <v>6.4977398766514173E-6</v>
+      </c>
+      <c r="H35" s="7">
+        <f t="shared" ref="H35:L35" si="2">H27/$C$30</f>
         <v>6.8211566724982921E-6</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I35" s="7">
         <f t="shared" si="2"/>
         <v>1.9517626962150582E-5</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J35" s="7">
         <f t="shared" si="2"/>
-        <v>1.3428210183193874E-5</v>
-      </c>
-      <c r="K23" s="6">
+        <v>1.6833923122250833E-5</v>
+      </c>
+      <c r="K35" s="7">
         <f t="shared" si="2"/>
         <v>5.0000214473374994E-6</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L35" s="7">
         <f t="shared" si="2"/>
-        <v>3.7878500249582914E-19</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="F24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="8">
-        <f>(4*G23*$C$21/PI()+(G20/1000)^2)^0.5*1000</f>
-        <v>5.4976286980300602</v>
-      </c>
-      <c r="H24" s="8">
-        <f t="shared" ref="H24:L24" si="3">(4*H23*$C$21/PI()+(H20/1000)^2)^0.5*1000</f>
-        <v>6.5092190647202743</v>
-      </c>
-      <c r="I24" s="8">
+        <v>1.1716098627455081E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="F36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="9">
+        <f>(4*G35*$C$33/PI()+(G32/1000)^2)^0.5*1000</f>
+        <v>4.0677215643048052</v>
+      </c>
+      <c r="H36" s="9">
+        <f t="shared" ref="H36:L36" si="3">(4*H35*$C$33/PI()+(H32/1000)^2)^0.5*1000</f>
+        <v>4.1677251387918908</v>
+      </c>
+      <c r="I36" s="9">
         <f t="shared" si="3"/>
-        <v>8.6429872691794873</v>
-      </c>
-      <c r="J24" s="8">
+        <v>7.049909852983844</v>
+      </c>
+      <c r="J36" s="9">
         <f t="shared" si="3"/>
-        <v>7.6938063687953369</v>
-      </c>
-      <c r="K24" s="8">
+        <v>6.5473073262649555</v>
+      </c>
+      <c r="K36" s="9">
         <f t="shared" si="3"/>
-        <v>6.1426745040371538</v>
-      </c>
-      <c r="L24" s="8">
+        <v>3.5682558852397475</v>
+      </c>
+      <c r="L36" s="9">
         <f t="shared" si="3"/>
-        <v>5.0000000000000968</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="2" t="s">
+        <v>1.7272753157787657</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E37" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="9">
-        <f t="shared" ref="G25:L25" si="4">MAX(G24,G22)</f>
-        <v>5.4976286980300602</v>
-      </c>
-      <c r="H25" s="9">
+      <c r="F37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="10">
+        <f t="shared" ref="G37:L37" si="4">MAX(G36,G34)</f>
+        <v>4.0677215643048052</v>
+      </c>
+      <c r="H37" s="10">
         <f t="shared" si="4"/>
-        <v>6.5092190647202743</v>
-      </c>
-      <c r="I25" s="9">
+        <v>4.1677251387918908</v>
+      </c>
+      <c r="I37" s="10">
         <f t="shared" si="4"/>
-        <v>8.6429872691794873</v>
-      </c>
-      <c r="J25" s="9">
+        <v>7.049909852983844</v>
+      </c>
+      <c r="J37" s="10">
         <f t="shared" si="4"/>
-        <v>7.6938063687953369</v>
-      </c>
-      <c r="K25" s="9">
+        <v>6.5473073262649555</v>
+      </c>
+      <c r="K37" s="10">
         <f t="shared" si="4"/>
-        <v>6.1426745040371538</v>
-      </c>
-      <c r="L25" s="9">
+        <v>3.5682558852397475</v>
+      </c>
+      <c r="L37" s="10">
         <f t="shared" si="4"/>
-        <v>5.1615868025998717</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G27" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G28" s="7">
-        <f>MAX(ABS(G14),ABS(G15))*$C$22</f>
-        <v>2702.2163870777599</v>
-      </c>
-      <c r="H28" s="7">
-        <f t="shared" ref="H28:N28" si="5">MAX(ABS(H14),ABS(H15))*$C$22</f>
+        <v>2.5517320799740491</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G40" s="8">
+        <f>MAX(ABS(G26),ABS(G27))*$C$34</f>
+        <v>3118.9151407926802</v>
+      </c>
+      <c r="H40" s="8">
+        <f t="shared" ref="H40:J40" si="5">MAX(ABS(H26),ABS(H27))*$C$34</f>
         <v>3274.1552027991802</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I40" s="8">
         <f t="shared" si="5"/>
-        <v>9368.4609418322798</v>
-      </c>
-      <c r="J28" s="7">
+        <v>9435.1896405948592</v>
+      </c>
+      <c r="J40" s="8">
         <f t="shared" si="5"/>
         <v>10839.482004211141</v>
       </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7">
-        <f t="shared" si="5"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8">
+        <f>MAX(ABS(M26),ABS(M27))*$C$34</f>
         <v>5499.4002417148404</v>
       </c>
-      <c r="N28" s="7">
-        <f t="shared" si="5"/>
+      <c r="N40" s="8">
+        <f>MAX(ABS(N26),ABS(N27))*$C$34</f>
         <v>18777.985864804879</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="G16:N16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="G28:N28"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G39:N39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RearVD.xlsx
+++ b/RearVD.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\timot\Documents\Projects\Git\Wishbone-Forces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B3132171-D359-46D9-9975-DC64464DE61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337B22D2-7138-4061-9C5B-0679EB69C69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1728" windowWidth="23040" windowHeight="12204"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OutputForces" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -181,7 +194,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -686,9 +699,6 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -697,6 +707,9 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1051,11 +1064,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2246,314 +2259,315 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>210000000000</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>240000000</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="10"/>
+      <c r="I30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="3" t="s">
+      <c r="J30" s="10"/>
+      <c r="K30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="N30" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="4">
         <v>275</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="4">
         <v>278</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="4">
         <v>391</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="4">
         <v>436</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="4">
         <v>584</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="4">
         <v>329</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>2</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="5">
-        <v>0</v>
-      </c>
-      <c r="H32" s="5">
-        <v>0</v>
-      </c>
-      <c r="I32" s="5">
-        <v>0</v>
-      </c>
-      <c r="J32" s="5">
-        <v>0</v>
-      </c>
-      <c r="K32" s="5">
-        <v>0</v>
-      </c>
-      <c r="L32" s="5">
-        <v>0</v>
-      </c>
-      <c r="N32" s="6" t="s">
+      <c r="G32" s="4">
+        <v>5</v>
+      </c>
+      <c r="H32" s="4">
+        <v>5</v>
+      </c>
+      <c r="I32" s="4">
+        <f>15/16*25.4</f>
+        <v>23.8125</v>
+      </c>
+      <c r="J32" s="4">
+        <v>5</v>
+      </c>
+      <c r="K32" s="4">
+        <v>5</v>
+      </c>
+      <c r="L32" s="4">
+        <v>5</v>
+      </c>
+      <c r="N32" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>2</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="7">
-        <f>-G26*(G31/1000)^2/(PI()^2*$C$29)</f>
-        <v>4.9298814432097129E-11</v>
-      </c>
-      <c r="H33" s="7">
-        <f t="shared" ref="H33:L33" si="0">-H26*(H31/1000)^2/(PI()^2*$C$29)</f>
-        <v>4.8702048778498245E-11</v>
-      </c>
-      <c r="I33" s="7">
+      <c r="G33" s="6">
+        <f>-G26*(G31/1000)^2/(PI()^2*$C29/$C32)</f>
+        <v>9.8597628864194258E-11</v>
+      </c>
+      <c r="H33" s="6">
+        <f t="shared" ref="H33:L33" si="0">-H26*(H31/1000)^2/(PI()^2*$C29/$C32)</f>
+        <v>9.740409755699649E-11</v>
+      </c>
+      <c r="I33" s="6">
         <f t="shared" si="0"/>
-        <v>3.4798066410186542E-10</v>
-      </c>
-      <c r="J33" s="7">
+        <v>6.9596132820373085E-10</v>
+      </c>
+      <c r="J33" s="6">
         <f t="shared" si="0"/>
-        <v>4.9708707551909594E-10</v>
-      </c>
-      <c r="K33" s="7">
+        <v>9.9417415103819187E-10</v>
+      </c>
+      <c r="K33" s="6">
         <f t="shared" si="0"/>
-        <v>-1.5409983791161419E-10</v>
-      </c>
-      <c r="L33" s="7">
+        <v>-3.0819967582322838E-10</v>
+      </c>
+      <c r="L33" s="6">
         <f t="shared" si="0"/>
-        <v>3.3298922105888607E-11</v>
-      </c>
-      <c r="N33" s="8" t="s">
+        <v>6.6597844211777214E-11</v>
+      </c>
+      <c r="N33" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>2</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G34" s="9">
-        <f>IF(G33&gt;0,(2*G33*$C$32/PI()+(G32/1000)^4)^0.25*1000,"Tension only")</f>
-        <v>2.8147293941316387</v>
-      </c>
-      <c r="H34" s="9">
-        <f t="shared" ref="H34:L34" si="1">IF(H33&gt;0,(2*H33*$C$32/PI()+(H32/1000)^4)^0.25*1000,"Tension only")</f>
-        <v>2.8061723267508043</v>
-      </c>
-      <c r="I34" s="9">
+      <c r="G34" s="8">
+        <f>IF(G33&gt;0,(2*G33*$C32/PI()+(G32/1000)^4)^0.25*1000,"Tension only")</f>
+        <v>5.2341146249890516</v>
+      </c>
+      <c r="H34" s="8">
+        <f t="shared" ref="H34:L34" si="1">IF(H33&gt;0,(2*H33*$C32/PI()+(H32/1000)^4)^0.25*1000,"Tension only")</f>
+        <v>5.2314631699278893</v>
+      </c>
+      <c r="I34" s="8">
         <f t="shared" si="1"/>
-        <v>4.5879249793660195</v>
-      </c>
-      <c r="J34" s="9">
+        <v>23.828889734035847</v>
+      </c>
+      <c r="J34" s="8">
         <f t="shared" si="1"/>
-        <v>5.0157472939534564</v>
-      </c>
-      <c r="K34" s="9" t="str">
+        <v>6.5942081639107819</v>
+      </c>
+      <c r="K34" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Tension only</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="8">
         <f t="shared" si="1"/>
-        <v>2.5517320799740491</v>
+        <v>5.1615868025998717</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G35" s="7">
-        <f>G27/$C$30</f>
+      <c r="G35" s="6">
+        <f>G27/$C30</f>
         <v>6.4977398766514173E-6</v>
       </c>
-      <c r="H35" s="7">
-        <f t="shared" ref="H35:L35" si="2">H27/$C$30</f>
+      <c r="H35" s="6">
+        <f t="shared" ref="H35:L35" si="2">H27/$C30</f>
         <v>6.8211566724982921E-6</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <f t="shared" si="2"/>
         <v>1.9517626962150582E-5</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="6">
         <f t="shared" si="2"/>
         <v>1.6833923122250833E-5</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="6">
         <f t="shared" si="2"/>
         <v>5.0000214473374994E-6</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="6">
         <f t="shared" si="2"/>
         <v>1.1716098627455081E-6</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="9">
-        <f>(4*G35*$C$33/PI()+(G32/1000)^2)^0.5*1000</f>
-        <v>4.0677215643048052</v>
-      </c>
-      <c r="H36" s="9">
-        <f t="shared" ref="H36:L36" si="3">(4*H35*$C$33/PI()+(H32/1000)^2)^0.5*1000</f>
-        <v>4.1677251387918908</v>
-      </c>
-      <c r="I36" s="9">
+      <c r="G36" s="8">
+        <f>(4*G35*$C33/PI()+(G32/1000)^2)^0.5*1000</f>
+        <v>6.4456464939298623</v>
+      </c>
+      <c r="H36" s="8">
+        <f t="shared" ref="H36:L36" si="3">(4*H35*$C33/PI()+(H32/1000)^2)^0.5*1000</f>
+        <v>6.5092190647202743</v>
+      </c>
+      <c r="I36" s="8">
         <f t="shared" si="3"/>
-        <v>7.049909852983844</v>
-      </c>
-      <c r="J36" s="9">
+        <v>24.834177763421092</v>
+      </c>
+      <c r="J36" s="8">
         <f t="shared" si="3"/>
-        <v>6.5473073262649555</v>
-      </c>
-      <c r="K36" s="9">
+        <v>8.2381571497855486</v>
+      </c>
+      <c r="K36" s="8">
         <f t="shared" si="3"/>
-        <v>3.5682558852397475</v>
-      </c>
-      <c r="L36" s="9">
+        <v>6.1426745040371538</v>
+      </c>
+      <c r="L36" s="8">
         <f t="shared" si="3"/>
-        <v>1.7272753157787657</v>
+        <v>5.2899414001006315</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="9">
         <f t="shared" ref="G37:L37" si="4">MAX(G36,G34)</f>
-        <v>4.0677215643048052</v>
-      </c>
-      <c r="H37" s="10">
+        <v>6.4456464939298623</v>
+      </c>
+      <c r="H37" s="9">
         <f t="shared" si="4"/>
-        <v>4.1677251387918908</v>
-      </c>
-      <c r="I37" s="10">
+        <v>6.5092190647202743</v>
+      </c>
+      <c r="I37" s="9">
         <f t="shared" si="4"/>
-        <v>7.049909852983844</v>
-      </c>
-      <c r="J37" s="10">
+        <v>24.834177763421092</v>
+      </c>
+      <c r="J37" s="9">
         <f t="shared" si="4"/>
-        <v>6.5473073262649555</v>
-      </c>
-      <c r="K37" s="10">
+        <v>8.2381571497855486</v>
+      </c>
+      <c r="K37" s="9">
         <f t="shared" si="4"/>
-        <v>3.5682558852397475</v>
-      </c>
-      <c r="L37" s="10">
+        <v>6.1426745040371538</v>
+      </c>
+      <c r="L37" s="9">
         <f t="shared" si="4"/>
-        <v>2.5517320799740491</v>
+        <v>5.2899414001006315</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G40" s="8">
-        <f>MAX(ABS(G26),ABS(G27))*$C$34</f>
+      <c r="G40" s="7">
+        <f>MAX(ABS(G26),ABS(G27))*$C34</f>
         <v>3118.9151407926802</v>
       </c>
-      <c r="H40" s="8">
-        <f t="shared" ref="H40:J40" si="5">MAX(ABS(H26),ABS(H27))*$C$34</f>
+      <c r="H40" s="7">
+        <f t="shared" ref="H40:J40" si="5">MAX(ABS(H26),ABS(H27))*$C34</f>
         <v>3274.1552027991802</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="7">
         <f t="shared" si="5"/>
         <v>9435.1896405948592</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J40" s="7">
         <f t="shared" si="5"/>
         <v>10839.482004211141</v>
       </c>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8">
-        <f>MAX(ABS(M26),ABS(M27))*$C$34</f>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7">
+        <f>MAX(ABS(M26),ABS(M27))*$C34</f>
         <v>5499.4002417148404</v>
       </c>
-      <c r="N40" s="8">
-        <f>MAX(ABS(N26),ABS(N27))*$C$34</f>
+      <c r="N40" s="7">
+        <f>MAX(ABS(N26),ABS(N27))*$C34</f>
         <v>18777.985864804879</v>
       </c>
     </row>

--- a/RearVD.xlsx
+++ b/RearVD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\timot\Documents\Projects\Git\Wishbone-Forces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337B22D2-7138-4061-9C5B-0679EB69C69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EB0CBD-68BF-4695-864A-F1DC31DD0DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>Scenario</t>
   </si>
@@ -80,36 +80,18 @@
     <t>Brake</t>
   </si>
   <si>
-    <t>Bump</t>
-  </si>
-  <si>
-    <t>Brake Bump</t>
-  </si>
-  <si>
     <t xml:space="preserve">Corner Outside </t>
   </si>
   <si>
     <t>Corner Outside Brake</t>
   </si>
   <si>
-    <t>Corner Outside Bump</t>
-  </si>
-  <si>
-    <t>Corner Outside Brake Bump</t>
-  </si>
-  <si>
     <t xml:space="preserve">Corner Inside </t>
   </si>
   <si>
     <t>Corner Inside Brake</t>
   </si>
   <si>
-    <t>Corner Inner Bump</t>
-  </si>
-  <si>
-    <t>Corner Inner Brake Bump</t>
-  </si>
-  <si>
     <t>Accelerate and below</t>
   </si>
   <si>
@@ -152,9 +134,6 @@
     <t>Buckle safety factor</t>
   </si>
   <si>
-    <t>Inner diameter/mm</t>
-  </si>
-  <si>
     <t>Intermediate</t>
   </si>
   <si>
@@ -173,9 +152,6 @@
     <t>Bearing safety factor</t>
   </si>
   <si>
-    <t>Required outer diameter/mm</t>
-  </si>
-  <si>
     <t>Tension</t>
   </si>
   <si>
@@ -185,16 +161,76 @@
     <t>Overall</t>
   </si>
   <si>
-    <t>Critical Outer Diameter/mm</t>
-  </si>
-  <si>
     <t>Rod ends and spherical bearings - load requirements</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Brake Impact</t>
+  </si>
+  <si>
+    <t>Corner Outside Impact</t>
+  </si>
+  <si>
+    <t>Corner Outside Brake Impact</t>
+  </si>
+  <si>
+    <t>Corner Inner Impact</t>
+  </si>
+  <si>
+    <t>Corner Inner Brake Impact</t>
+  </si>
+  <si>
+    <t>Full squat</t>
+  </si>
+  <si>
+    <t>Outer diameter/mm</t>
+  </si>
+  <si>
+    <t>Outer radius/m</t>
+  </si>
+  <si>
+    <t>Required thickness/mm</t>
+  </si>
+  <si>
+    <t>Critical Thickness/mm</t>
+  </si>
+  <si>
+    <t>Critical Thickness/in</t>
+  </si>
+  <si>
+    <t>1/2" 20SWG</t>
+  </si>
+  <si>
+    <t>.036"</t>
+  </si>
+  <si>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <t>.064"</t>
+  </si>
+  <si>
+    <t>3/8" 16SWG</t>
+  </si>
+  <si>
+    <t>20SWG</t>
+  </si>
+  <si>
+    <t>16SWG</t>
+  </si>
+  <si>
+    <t>5/8" 16SWG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -696,7 +732,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -710,6 +746,8 @@
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1065,13 +1103,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
@@ -1134,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>-59.135406112003601</v>
+        <v>59.135406112003601</v>
       </c>
       <c r="H2">
-        <v>200.25132491294599</v>
+        <v>-200.25132491294599</v>
       </c>
       <c r="I2">
-        <v>-182.591149437768</v>
+        <v>182.591149437768</v>
       </c>
       <c r="J2">
-        <v>-743.212781566697</v>
+        <v>743.212781566697</v>
       </c>
       <c r="K2">
-        <v>1068.1737277131399</v>
+        <v>-1068.1737277131399</v>
       </c>
       <c r="L2" s="1">
-        <v>9.1612915170680105E-12</v>
+        <v>-9.1612915170680105E-12</v>
       </c>
       <c r="M2">
         <v>244.85769893052901</v>
@@ -1178,22 +1228,22 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>-782.97989744399797</v>
+        <v>782.97989744399797</v>
       </c>
       <c r="H3">
-        <v>572.50061513668697</v>
+        <v>-572.50061513668697</v>
       </c>
       <c r="I3">
-        <v>2167.8651733656202</v>
+        <v>-2167.8651733656202</v>
       </c>
       <c r="J3">
-        <v>-2122.4985309691501</v>
+        <v>2122.4985309691501</v>
       </c>
       <c r="K3">
-        <v>1068.2826776264901</v>
+        <v>-1068.2826776264901</v>
       </c>
       <c r="L3">
-        <v>-198.952618202011</v>
+        <v>198.952618202011</v>
       </c>
       <c r="M3">
         <v>1249.0025217602399</v>
@@ -1207,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1222,22 +1272,22 @@
         <v>-200</v>
       </c>
       <c r="G4">
-        <v>111.76858773235701</v>
+        <v>-111.76858773235701</v>
       </c>
       <c r="H4">
-        <v>130.72552415847699</v>
+        <v>-130.72552415847699</v>
       </c>
       <c r="I4">
-        <v>-16.682174690643201</v>
+        <v>16.682174690643201</v>
       </c>
       <c r="J4">
-        <v>-636.38667119867</v>
+        <v>636.38667119867</v>
       </c>
       <c r="K4">
-        <v>1068.30499605913</v>
+        <v>-1068.30499605913</v>
       </c>
       <c r="L4">
-        <v>-239.70814036853201</v>
+        <v>239.70814036853201</v>
       </c>
       <c r="M4">
         <v>96.946732237505202</v>
@@ -1251,7 +1301,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>-1500</v>
@@ -1266,22 +1316,22 @@
         <v>-200</v>
       </c>
       <c r="G5">
-        <v>-1335.92039493163</v>
+        <v>1335.92039493163</v>
       </c>
       <c r="H5">
-        <v>875.22410460596097</v>
+        <v>-875.22410460596097</v>
       </c>
       <c r="I5">
-        <v>4684.2304709161399</v>
+        <v>-4684.2304709161399</v>
       </c>
       <c r="J5">
-        <v>-3394.9581700035701</v>
+        <v>3394.9581700035701</v>
       </c>
       <c r="K5">
-        <v>1068.5228958858299</v>
+        <v>-1068.5228958858299</v>
       </c>
       <c r="L5">
-        <v>-637.61337677257302</v>
+        <v>637.61337677257302</v>
       </c>
       <c r="M5">
         <v>2041.0290817325899</v>
@@ -1295,43 +1345,43 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="E6">
-        <v>750</v>
+        <v>1600</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-439.70980188227799</v>
+        <v>785.81781904075001</v>
       </c>
       <c r="H6">
-        <v>1488.9974753428</v>
+        <v>-2661.0294872260301</v>
       </c>
       <c r="I6">
-        <v>1425.5946832877401</v>
+        <v>-2397.99432459032</v>
       </c>
       <c r="J6">
-        <v>-4602.3698967318996</v>
+        <v>8274.7262669619795</v>
       </c>
       <c r="K6">
-        <v>1199.8738790150101</v>
+        <v>-2507.0508813779502</v>
       </c>
       <c r="L6" s="1">
-        <v>9.0908400598998995E-11</v>
+        <v>-1.6123907764509201E-10</v>
       </c>
       <c r="M6">
-        <v>1820.67457323588</v>
+        <v>3253.7790065144</v>
       </c>
       <c r="N6">
-        <v>5864.3057079115097</v>
+        <v>10393.308077022</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1339,7 +1389,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>-1060</v>
@@ -1354,22 +1404,22 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1351.10819353888</v>
+        <v>1351.10819353888</v>
       </c>
       <c r="H7">
-        <v>1637.0776013995901</v>
+        <v>-1637.0776013995901</v>
       </c>
       <c r="I7">
-        <v>4275.8384419170598</v>
+        <v>-4275.8384419170598</v>
       </c>
       <c r="J7">
-        <v>-5419.7410021055703</v>
+        <v>5419.7410021055703</v>
       </c>
       <c r="K7">
-        <v>1161.3958171773299</v>
+        <v>-1161.3958171773299</v>
       </c>
       <c r="L7">
-        <v>-281.18636705878799</v>
+        <v>281.18636705878799</v>
       </c>
       <c r="M7">
         <v>2749.7001208574202</v>
@@ -1383,43 +1433,43 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="E8">
-        <v>750</v>
+        <v>1600</v>
       </c>
       <c r="F8">
         <v>-200</v>
       </c>
       <c r="G8">
-        <v>-268.80580803791599</v>
+        <v>614.91382519638898</v>
       </c>
       <c r="H8">
-        <v>1419.47167458833</v>
+        <v>-2591.5036864715598</v>
       </c>
       <c r="I8">
-        <v>1591.5036580348701</v>
+        <v>-2563.9032993374399</v>
       </c>
       <c r="J8">
-        <v>-4495.5437863638699</v>
+        <v>8167.9001565939498</v>
       </c>
       <c r="K8">
-        <v>1200.0051473609999</v>
+        <v>-2507.1821497239398</v>
       </c>
       <c r="L8">
-        <v>-239.70814036845101</v>
+        <v>239.70814036837999</v>
       </c>
       <c r="M8">
-        <v>1616.85560928224</v>
+        <v>3048.8096736365101</v>
       </c>
       <c r="N8">
-        <v>5910.1436970086697</v>
+        <v>10438.3667425474</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1427,7 +1477,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>-1060</v>
@@ -1442,22 +1492,22 @@
         <v>-200</v>
       </c>
       <c r="G9">
-        <v>-1180.20419969452</v>
+        <v>1180.20419969452</v>
       </c>
       <c r="H9">
-        <v>1567.55180064512</v>
+        <v>-1567.55180064512</v>
       </c>
       <c r="I9">
-        <v>4441.7474166641796</v>
+        <v>-4441.7474166641796</v>
       </c>
       <c r="J9">
-        <v>-5312.9148917375396</v>
+        <v>5312.9148917375396</v>
       </c>
       <c r="K9">
-        <v>1161.52708552332</v>
+        <v>-1161.52708552332</v>
       </c>
       <c r="L9">
-        <v>-520.89450742733004</v>
+        <v>520.89450742733004</v>
       </c>
       <c r="M9">
         <v>2530.9317284931799</v>
@@ -1471,7 +1521,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1486,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>321.438989658271</v>
+        <v>-321.438989658271</v>
       </c>
       <c r="H10">
-        <v>-1088.4948255168999</v>
+        <v>1088.4948255168999</v>
       </c>
       <c r="I10">
-        <v>-1790.7769821632801</v>
+        <v>1790.7769821632801</v>
       </c>
       <c r="J10">
-        <v>3115.9443335985002</v>
+        <v>-3115.9443335985002</v>
       </c>
       <c r="K10">
-        <v>936.473576411267</v>
+        <v>-936.473576411267</v>
       </c>
       <c r="L10" s="1">
-        <v>-7.2585817564863003E-11</v>
+        <v>7.2585817564863003E-11</v>
       </c>
       <c r="M10">
         <v>1330.95917537482</v>
@@ -1515,7 +1565,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>-1060</v>
@@ -1530,22 +1580,22 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-813.22971418356201</v>
+        <v>813.22971418356201</v>
       </c>
       <c r="H11">
-        <v>-184.35029120792899</v>
+        <v>184.35029120792899</v>
       </c>
       <c r="I11">
-        <v>2002.93579833166</v>
+        <v>-2002.93579833166</v>
       </c>
       <c r="J11">
-        <v>34.534387327915503</v>
+        <v>-34.534387327915503</v>
       </c>
       <c r="K11">
-        <v>975.259603337351</v>
+        <v>-975.259603337351</v>
       </c>
       <c r="L11">
-        <v>-281.18636705890401</v>
+        <v>281.18636705890401</v>
       </c>
       <c r="M11">
         <v>698.74093397262595</v>
@@ -1559,7 +1609,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1574,22 +1624,22 @@
         <v>-200</v>
       </c>
       <c r="G12">
-        <v>492.34298350263202</v>
+        <v>-492.34298350263202</v>
       </c>
       <c r="H12">
-        <v>-1158.02062627137</v>
+        <v>1158.02062627137</v>
       </c>
       <c r="I12">
-        <v>-1624.86800741616</v>
+        <v>1624.86800741616</v>
       </c>
       <c r="J12">
-        <v>3222.7704439665299</v>
+        <v>-3222.7704439665299</v>
       </c>
       <c r="K12">
-        <v>936.60484475726003</v>
+        <v>-936.60484475726003</v>
       </c>
       <c r="L12">
-        <v>-239.70814036861401</v>
+        <v>239.70814036861401</v>
       </c>
       <c r="M12">
         <v>1539.79638887957</v>
@@ -1603,7 +1653,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>-1060</v>
@@ -1618,22 +1668,22 @@
         <v>-200</v>
       </c>
       <c r="G13">
-        <v>-642.32572033920098</v>
+        <v>642.32572033920098</v>
       </c>
       <c r="H13">
-        <v>-253.876091962397</v>
+        <v>253.876091962397</v>
       </c>
       <c r="I13">
-        <v>2168.8447730787898</v>
+        <v>-2168.8447730787898</v>
       </c>
       <c r="J13">
-        <v>141.360497695943</v>
+        <v>-141.360497695943</v>
       </c>
       <c r="K13">
-        <v>975.39087168334299</v>
+        <v>-975.39087168334299</v>
       </c>
       <c r="L13">
-        <v>-520.894507427446</v>
+        <v>520.894507427446</v>
       </c>
       <c r="M13">
         <v>501.77619694052498</v>
@@ -1647,7 +1697,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1662,22 +1712,22 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>-59.135406112003601</v>
+        <v>59.135406112003601</v>
       </c>
       <c r="H14">
-        <v>200.25132491294599</v>
+        <v>-200.25132491294599</v>
       </c>
       <c r="I14">
-        <v>-182.591149437768</v>
+        <v>182.591149437768</v>
       </c>
       <c r="J14">
-        <v>-743.212781566697</v>
+        <v>743.212781566697</v>
       </c>
       <c r="K14">
-        <v>1068.1737277131399</v>
+        <v>-1068.1737277131399</v>
       </c>
       <c r="L14" s="1">
-        <v>9.1612915170680105E-12</v>
+        <v>-9.1612915170680105E-12</v>
       </c>
       <c r="M14">
         <v>244.85769893052901</v>
@@ -1691,7 +1741,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>750</v>
@@ -1706,22 +1756,22 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>664.70908521999104</v>
+        <v>-664.70908521999104</v>
       </c>
       <c r="H15">
-        <v>-171.997965310795</v>
+        <v>171.997965310795</v>
       </c>
       <c r="I15">
-        <v>-2533.04747224116</v>
+        <v>2533.04747224116</v>
       </c>
       <c r="J15">
-        <v>636.07296783575396</v>
+        <v>-636.07296783575396</v>
       </c>
       <c r="K15">
-        <v>1068.0647777997899</v>
+        <v>-1068.0647777997899</v>
       </c>
       <c r="L15">
-        <v>198.95261820202899</v>
+        <v>-198.95261820202899</v>
       </c>
       <c r="M15">
         <v>793.31437571462402</v>
@@ -1735,7 +1785,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1750,22 +1800,22 @@
         <v>-200</v>
       </c>
       <c r="G16">
-        <v>111.76858773235701</v>
+        <v>-111.76858773235701</v>
       </c>
       <c r="H16">
-        <v>130.72552415847699</v>
+        <v>-130.72552415847699</v>
       </c>
       <c r="I16">
-        <v>-16.682174690643201</v>
+        <v>16.682174690643201</v>
       </c>
       <c r="J16">
-        <v>-636.38667119867</v>
+        <v>636.38667119867</v>
       </c>
       <c r="K16">
-        <v>1068.30499605913</v>
+        <v>-1068.30499605913</v>
       </c>
       <c r="L16">
-        <v>-239.70814036853201</v>
+        <v>239.70814036853201</v>
       </c>
       <c r="M16">
         <v>96.946732237505202</v>
@@ -1779,7 +1829,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>1500</v>
@@ -1794,22 +1844,22 @@
         <v>-200</v>
       </c>
       <c r="G17">
-        <v>1559.4575703963401</v>
+        <v>-1559.4575703963401</v>
       </c>
       <c r="H17">
-        <v>-613.77305628900501</v>
+        <v>613.77305628900501</v>
       </c>
       <c r="I17">
-        <v>-4717.5948202974296</v>
+        <v>4717.5948202974296</v>
       </c>
       <c r="J17">
-        <v>2122.1848276062301</v>
+        <v>-2122.1848276062301</v>
       </c>
       <c r="K17">
-        <v>1068.08709623243</v>
+        <v>-1068.08709623243</v>
       </c>
       <c r="L17">
-        <v>158.197096035507</v>
+        <v>-158.197096035507</v>
       </c>
       <c r="M17">
         <v>2032.4308784842201</v>
@@ -1823,43 +1873,43 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="E18">
-        <v>750</v>
+        <v>1600</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>-439.70980188227799</v>
+        <v>785.81781904075001</v>
       </c>
       <c r="H18">
-        <v>1488.9974753428</v>
+        <v>-2661.0294872260301</v>
       </c>
       <c r="I18">
-        <v>1425.5946832877401</v>
+        <v>-2397.99432459032</v>
       </c>
       <c r="J18">
-        <v>-4602.3698967318996</v>
+        <v>8274.7262669619795</v>
       </c>
       <c r="K18">
-        <v>1199.8738790150101</v>
+        <v>-2507.0508813779502</v>
       </c>
       <c r="L18" s="1">
-        <v>9.0908400598998995E-11</v>
+        <v>-1.6123907764509201E-10</v>
       </c>
       <c r="M18">
-        <v>1820.67457323588</v>
+        <v>3253.7790065144</v>
       </c>
       <c r="N18">
-        <v>5864.3057079115097</v>
+        <v>10393.308077022</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -1867,7 +1917,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>1060</v>
@@ -1882,22 +1932,22 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>694.95890195955496</v>
+        <v>-694.95890195955496</v>
       </c>
       <c r="H19">
-        <v>584.85294103382103</v>
+        <v>-584.85294103382103</v>
       </c>
       <c r="I19">
-        <v>-2368.1180972072002</v>
+        <v>2368.1180972072002</v>
       </c>
       <c r="J19">
-        <v>-1520.95995046131</v>
+        <v>1520.95995046131</v>
       </c>
       <c r="K19">
-        <v>1161.08785208893</v>
+        <v>-1161.08785208893</v>
       </c>
       <c r="L19">
-        <v>281.18636705892197</v>
+        <v>-281.18636705892197</v>
       </c>
       <c r="M19">
         <v>513.39898419568306</v>
@@ -1911,43 +1961,43 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="E20">
-        <v>750</v>
+        <v>1600</v>
       </c>
       <c r="F20">
         <v>-200</v>
       </c>
       <c r="G20">
-        <v>-268.80580803791599</v>
+        <v>614.91382519638898</v>
       </c>
       <c r="H20">
-        <v>1419.47167458833</v>
+        <v>-2591.5036864715598</v>
       </c>
       <c r="I20">
-        <v>1591.5036580348701</v>
+        <v>-2563.9032993374399</v>
       </c>
       <c r="J20">
-        <v>-4495.5437863638699</v>
+        <v>8167.9001565939498</v>
       </c>
       <c r="K20">
-        <v>1200.0051473609999</v>
+        <v>-2507.1821497239398</v>
       </c>
       <c r="L20">
-        <v>-239.70814036845101</v>
+        <v>239.70814036837999</v>
       </c>
       <c r="M20">
-        <v>1616.85560928224</v>
+        <v>3048.8096736365101</v>
       </c>
       <c r="N20">
-        <v>5910.1436970086697</v>
+        <v>10438.3667425474</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -1955,7 +2005,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>1060</v>
@@ -1970,22 +2020,22 @@
         <v>-200</v>
       </c>
       <c r="G21">
-        <v>865.86289580391599</v>
+        <v>-865.86289580391599</v>
       </c>
       <c r="H21">
-        <v>515.32714027935299</v>
+        <v>-515.32714027935299</v>
       </c>
       <c r="I21">
-        <v>-2202.2091224600699</v>
+        <v>2202.2091224600699</v>
       </c>
       <c r="J21">
-        <v>-1414.13384009328</v>
+        <v>1414.13384009328</v>
       </c>
       <c r="K21">
-        <v>1161.2191204349199</v>
+        <v>-1161.2191204349199</v>
       </c>
       <c r="L21">
-        <v>41.478226690380197</v>
+        <v>-41.478226690380197</v>
       </c>
       <c r="M21">
         <v>631.60494796823195</v>
@@ -1999,7 +2049,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2014,22 +2064,22 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>321.438989658271</v>
+        <v>-321.438989658271</v>
       </c>
       <c r="H22">
-        <v>-1088.4948255168999</v>
+        <v>1088.4948255168999</v>
       </c>
       <c r="I22">
-        <v>-1790.7769821632801</v>
+        <v>1790.7769821632801</v>
       </c>
       <c r="J22">
-        <v>3115.9443335985002</v>
+        <v>-3115.9443335985002</v>
       </c>
       <c r="K22">
-        <v>936.473576411267</v>
+        <v>-936.473576411267</v>
       </c>
       <c r="L22" s="1">
-        <v>-7.2585817564863003E-11</v>
+        <v>7.2585817564863003E-11</v>
       </c>
       <c r="M22">
         <v>1330.95917537482</v>
@@ -2043,7 +2093,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C23">
         <v>1060</v>
@@ -2058,22 +2108,22 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1232.8373813148701</v>
+        <v>-1232.8373813148701</v>
       </c>
       <c r="H23">
-        <v>-1236.5749515737</v>
+        <v>1236.5749515737</v>
       </c>
       <c r="I23">
-        <v>-4641.0207407926</v>
+        <v>4641.0207407926</v>
       </c>
       <c r="J23">
-        <v>3933.3154389721699</v>
+        <v>-3933.3154389721699</v>
       </c>
       <c r="K23">
-        <v>974.95163824894996</v>
+        <v>-974.95163824894996</v>
       </c>
       <c r="L23">
-        <v>281.18636705880601</v>
+        <v>-281.18636705880601</v>
       </c>
       <c r="M23">
         <v>2270.42873909625</v>
@@ -2087,7 +2137,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2102,22 +2152,22 @@
         <v>-200</v>
       </c>
       <c r="G24">
-        <v>492.34298350263202</v>
+        <v>-492.34298350263202</v>
       </c>
       <c r="H24">
-        <v>-1158.02062627137</v>
+        <v>1158.02062627137</v>
       </c>
       <c r="I24">
-        <v>-1624.86800741616</v>
+        <v>1624.86800741616</v>
       </c>
       <c r="J24">
-        <v>3222.7704439665299</v>
+        <v>-3222.7704439665299</v>
       </c>
       <c r="K24">
-        <v>936.60484475726003</v>
+        <v>-936.60484475726003</v>
       </c>
       <c r="L24">
-        <v>-239.70814036861401</v>
+        <v>239.70814036861401</v>
       </c>
       <c r="M24">
         <v>1539.79638887957</v>
@@ -2131,7 +2181,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C25">
         <v>1060</v>
@@ -2146,22 +2196,22 @@
         <v>-200</v>
       </c>
       <c r="G25">
-        <v>1403.7413751592301</v>
+        <v>-1403.7413751592301</v>
       </c>
       <c r="H25">
-        <v>-1306.1007523281701</v>
+        <v>1306.1007523281701</v>
       </c>
       <c r="I25">
-        <v>-4475.1117660454702</v>
+        <v>4475.1117660454702</v>
       </c>
       <c r="J25">
-        <v>4040.1415493402001</v>
+        <v>-4040.1415493402001</v>
       </c>
       <c r="K25">
-        <v>975.08290659494196</v>
+        <v>-975.08290659494196</v>
       </c>
       <c r="L25">
-        <v>41.478226690264698</v>
+        <v>-41.478226690264698</v>
       </c>
       <c r="M25">
         <v>2491.7802375000801</v>
@@ -2175,43 +2225,43 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C26">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>750</v>
+        <v>1800</v>
       </c>
       <c r="F26">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>-1351.10819353888</v>
+        <v>141.92497466880801</v>
       </c>
       <c r="H26">
-        <v>-1306.1007523281701</v>
+        <v>-480.603179791071</v>
       </c>
       <c r="I26">
-        <v>-4717.5948202974296</v>
+        <v>438.21875865064402</v>
       </c>
       <c r="J26">
-        <v>-5419.7410021055703</v>
+        <v>1783.71067576007</v>
       </c>
       <c r="K26">
-        <v>936.473576411267</v>
-      </c>
-      <c r="L26">
-        <v>-637.61337677257302</v>
+        <v>-2563.6169465115399</v>
+      </c>
+      <c r="L26" s="1">
+        <v>-2.1987099640963201E-11</v>
       </c>
       <c r="M26">
-        <v>96.946732237505202</v>
+        <v>587.65847743327004</v>
       </c>
       <c r="N26">
-        <v>595.44235304784195</v>
+        <v>1429.06164731482</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -2219,364 +2269,510 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C27">
-        <v>1500</v>
+        <v>-1500</v>
       </c>
       <c r="D27">
-        <v>1500</v>
+        <v>-1500</v>
       </c>
       <c r="E27">
         <v>750</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G27">
-        <v>1559.4575703963401</v>
+        <v>-1559.4575703963401</v>
       </c>
       <c r="H27">
-        <v>1637.0776013995901</v>
+        <v>-2661.0294872260301</v>
       </c>
       <c r="I27">
-        <v>4684.2304709161399</v>
+        <v>-4684.2304709161399</v>
       </c>
       <c r="J27">
-        <v>4040.1415493402001</v>
+        <v>-4040.1415493402001</v>
       </c>
       <c r="K27">
-        <v>1200.0051473609999</v>
+        <v>-2563.6169465115399</v>
       </c>
       <c r="L27">
-        <v>281.18636705892197</v>
+        <v>-281.18636705892197</v>
       </c>
       <c r="M27">
-        <v>2749.7001208574202</v>
+        <v>96.946732237505202</v>
       </c>
       <c r="N27">
-        <v>9388.9929324024397</v>
+        <v>595.44235304784195</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G28" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>1500</v>
+      </c>
+      <c r="D28">
+        <v>2600</v>
+      </c>
+      <c r="E28">
+        <v>1800</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1351.10819353888</v>
+      </c>
+      <c r="H28">
+        <v>1306.1007523281701</v>
+      </c>
+      <c r="I28">
+        <v>4717.5948202974296</v>
+      </c>
+      <c r="J28">
+        <v>8274.7262669619795</v>
+      </c>
+      <c r="K28">
+        <v>-936.473576411267</v>
+      </c>
+      <c r="L28">
+        <v>637.61337677257302</v>
+      </c>
+      <c r="M28">
+        <v>3253.7790065144</v>
+      </c>
+      <c r="N28">
+        <v>10438.3667425474</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="3">
-        <v>210000000000</v>
-      </c>
+      <c r="G29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="3">
+        <v>210000000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="3">
+        <v>240000000</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="3">
-        <v>240000000</v>
-      </c>
-      <c r="G30" s="10" t="s">
+      <c r="G32" s="4">
+        <v>427</v>
+      </c>
+      <c r="H32" s="4">
+        <v>212</v>
+      </c>
+      <c r="I32" s="4">
+        <v>512</v>
+      </c>
+      <c r="J32" s="4">
+        <v>340</v>
+      </c>
+      <c r="K32" s="4">
+        <v>366</v>
+      </c>
+      <c r="L32" s="4">
+        <v>394</v>
+      </c>
+      <c r="N32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10" t="s">
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="4">
+        <f>25.4*4/8</f>
+        <v>12.7</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" ref="H33:J33" si="0">25.4*4/8</f>
+        <v>12.7</v>
+      </c>
+      <c r="I33" s="4">
+        <f>25.4*5/8</f>
+        <v>15.875</v>
+      </c>
+      <c r="J33" s="4">
+        <f>25.4*5/8</f>
+        <v>15.875</v>
+      </c>
+      <c r="K33" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="L33" s="4">
+        <f>3/8*25.4</f>
+        <v>9.5249999999999986</v>
+      </c>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="4">
-        <v>275</v>
-      </c>
-      <c r="H31" s="4">
-        <v>278</v>
-      </c>
-      <c r="I31" s="4">
-        <v>391</v>
-      </c>
-      <c r="J31" s="4">
-        <v>436</v>
-      </c>
-      <c r="K31" s="4">
-        <v>584</v>
-      </c>
-      <c r="L31" s="4">
-        <v>329</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="4">
-        <v>2</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="4">
-        <v>5</v>
-      </c>
-      <c r="H32" s="4">
-        <v>5</v>
-      </c>
-      <c r="I32" s="4">
-        <f>15/16*25.4</f>
-        <v>23.8125</v>
-      </c>
-      <c r="J32" s="4">
-        <v>5</v>
-      </c>
-      <c r="K32" s="4">
-        <v>5</v>
-      </c>
-      <c r="L32" s="4">
-        <v>5</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="4">
-        <v>2</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="6">
-        <f>-G26*(G31/1000)^2/(PI()^2*$C29/$C32)</f>
-        <v>9.8597628864194258E-11</v>
-      </c>
-      <c r="H33" s="6">
-        <f t="shared" ref="H33:L33" si="0">-H26*(H31/1000)^2/(PI()^2*$C29/$C32)</f>
-        <v>9.740409755699649E-11</v>
-      </c>
-      <c r="I33" s="6">
-        <f t="shared" si="0"/>
-        <v>6.9596132820373085E-10</v>
-      </c>
-      <c r="J33" s="6">
-        <f t="shared" si="0"/>
-        <v>9.9417415103819187E-10</v>
-      </c>
-      <c r="K33" s="6">
-        <f t="shared" si="0"/>
-        <v>-3.0819967582322838E-10</v>
-      </c>
-      <c r="L33" s="6">
-        <f t="shared" si="0"/>
-        <v>6.6597844211777214E-11</v>
-      </c>
-      <c r="N33" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B34" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="C34" s="4">
         <v>2</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="8">
-        <f>IF(G33&gt;0,(2*G33*$C32/PI()+(G32/1000)^4)^0.25*1000,"Tension only")</f>
-        <v>5.2341146249890516</v>
-      </c>
-      <c r="H34" s="8">
-        <f t="shared" ref="H34:L34" si="1">IF(H33&gt;0,(2*H33*$C32/PI()+(H32/1000)^4)^0.25*1000,"Tension only")</f>
-        <v>5.2314631699278893</v>
-      </c>
-      <c r="I34" s="8">
+        <v>51</v>
+      </c>
+      <c r="G34" s="5">
+        <f>G33/2000</f>
+        <v>6.3499999999999997E-3</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" ref="H34:L34" si="1">H33/2000</f>
+        <v>6.3499999999999997E-3</v>
+      </c>
+      <c r="I34" s="5">
         <f t="shared" si="1"/>
-        <v>23.828889734035847</v>
-      </c>
-      <c r="J34" s="8">
+        <v>7.9375000000000001E-3</v>
+      </c>
+      <c r="J34" s="5">
         <f t="shared" si="1"/>
-        <v>6.5942081639107819</v>
-      </c>
-      <c r="K34" s="8" t="str">
+        <v>7.9375000000000001E-3</v>
+      </c>
+      <c r="K34" s="5">
         <f t="shared" si="1"/>
-        <v>Tension only</v>
-      </c>
-      <c r="L34" s="8">
+        <v>6.3499999999999997E-3</v>
+      </c>
+      <c r="L34" s="5">
         <f t="shared" si="1"/>
-        <v>5.1615868025998717</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.7624999999999994E-3</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2</v>
+      </c>
       <c r="E35" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G35" s="6">
-        <f>G27/$C30</f>
-        <v>6.4977398766514173E-6</v>
+        <f t="shared" ref="G35:L35" si="2">-G27*(G32/1000)^2/(PI()^2*$C30/$C34)</f>
+        <v>2.743723029846406E-10</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" ref="H35:L35" si="2">H27/$C30</f>
-        <v>6.8211566724982921E-6</v>
+        <f t="shared" si="2"/>
+        <v>1.1540705653398992E-10</v>
       </c>
       <c r="I35" s="6">
         <f t="shared" si="2"/>
-        <v>1.9517626962150582E-5</v>
+        <v>1.1849202794913647E-9</v>
       </c>
       <c r="J35" s="6">
         <f t="shared" si="2"/>
-        <v>1.6833923122250833E-5</v>
+        <v>4.5067697522301772E-10</v>
       </c>
       <c r="K35" s="6">
         <f t="shared" si="2"/>
-        <v>5.0000214473374994E-6</v>
+        <v>3.3137997443949822E-10</v>
       </c>
       <c r="L35" s="6">
         <f t="shared" si="2"/>
-        <v>1.1716098627455081E-6</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.2120901712699626E-11</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="4">
+        <v>2</v>
+      </c>
       <c r="F36" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G36" s="8">
-        <f>(4*G35*$C33/PI()+(G32/1000)^2)^0.5*1000</f>
-        <v>6.4456464939298623</v>
+        <f>IF(G35&gt;0,(G34-((-G35+PI() * (G34)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
+        <v>0.37262494213785841</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" ref="H36:L36" si="3">(4*H35*$C33/PI()+(H32/1000)^2)^0.5*1000</f>
-        <v>6.5092190647202743</v>
+        <f t="shared" ref="H36:L36" si="3">IF(H35&gt;0,(H34-((-H35+PI() * (H34)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
+        <v>0.14860577677536929</v>
       </c>
       <c r="I36" s="8">
         <f t="shared" si="3"/>
-        <v>24.834177763421092</v>
+        <v>0.89431179910125314</v>
       </c>
       <c r="J36" s="8">
         <f t="shared" si="3"/>
-        <v>8.2381571497855486</v>
+        <v>0.30386398894015082</v>
       </c>
       <c r="K36" s="8">
         <f t="shared" si="3"/>
-        <v>6.1426745040371538</v>
+        <v>0.45946649660331873</v>
       </c>
       <c r="L36" s="8">
         <f t="shared" si="3"/>
-        <v>5.2899414001006315</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0.12929055889357097</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="E37" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" s="9">
-        <f t="shared" ref="G37:L37" si="4">MAX(G36,G34)</f>
-        <v>6.4456464939298623</v>
-      </c>
-      <c r="H37" s="9">
+        <v>40</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" ref="G37:L37" si="4">G28/$C31*$C35</f>
+        <v>1.1259234946157332E-5</v>
+      </c>
+      <c r="H37" s="6">
         <f t="shared" si="4"/>
-        <v>6.5092190647202743</v>
-      </c>
-      <c r="I37" s="9">
+        <v>1.0884172936068084E-5</v>
+      </c>
+      <c r="I37" s="6">
         <f t="shared" si="4"/>
-        <v>24.834177763421092</v>
-      </c>
-      <c r="J37" s="9">
+        <v>3.9313290169145244E-5</v>
+      </c>
+      <c r="J37" s="6">
         <f t="shared" si="4"/>
-        <v>8.2381571497855486</v>
-      </c>
-      <c r="K37" s="9">
+        <v>6.8956052224683164E-5</v>
+      </c>
+      <c r="K37" s="6">
         <f t="shared" si="4"/>
-        <v>6.1426745040371538</v>
-      </c>
-      <c r="L37" s="9">
+        <v>-7.8039464700938912E-6</v>
+      </c>
+      <c r="L37" s="6">
         <f t="shared" si="4"/>
-        <v>5.2899414001006315</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G39" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G40" s="7">
-        <f>MAX(ABS(G26),ABS(G27))*$C34</f>
+        <v>5.3134448064381082E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="8">
+        <f>(G34-(G34^2-G37/PI())^0.5)*1000</f>
+        <v>0.28876463039323108</v>
+      </c>
+      <c r="H38" s="8">
+        <f t="shared" ref="H38:L38" si="5">(H34-(H34^2-H37/PI())^0.5)*1000</f>
+        <v>0.27892430029772403</v>
+      </c>
+      <c r="I38" s="8">
+        <f t="shared" si="5"/>
+        <v>0.8318615817613515</v>
+      </c>
+      <c r="J38" s="8">
+        <f t="shared" si="5"/>
+        <v>1.5301204174656873</v>
+      </c>
+      <c r="K38" s="8">
+        <f t="shared" si="5"/>
+        <v>-0.19267325431126647</v>
+      </c>
+      <c r="L38" s="8">
+        <f t="shared" si="5"/>
+        <v>0.18100633107292954</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="9">
+        <f t="shared" ref="G39:L39" si="6">MAX(G38,G36)</f>
+        <v>0.37262494213785841</v>
+      </c>
+      <c r="H39" s="9">
+        <f t="shared" si="6"/>
+        <v>0.27892430029772403</v>
+      </c>
+      <c r="I39" s="9">
+        <f t="shared" si="6"/>
+        <v>0.89431179910125314</v>
+      </c>
+      <c r="J39" s="9">
+        <f t="shared" si="6"/>
+        <v>1.5301204174656873</v>
+      </c>
+      <c r="K39" s="9">
+        <f t="shared" si="6"/>
+        <v>0.45946649660331873</v>
+      </c>
+      <c r="L39" s="9">
+        <f t="shared" si="6"/>
+        <v>0.18100633107292954</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E40" s="11"/>
+      <c r="F40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="12">
+        <f>G39/25.4</f>
+        <v>1.4670273312514111E-2</v>
+      </c>
+      <c r="H40" s="12">
+        <f t="shared" ref="H40:L40" si="7">H39/25.4</f>
+        <v>1.0981271665264726E-2</v>
+      </c>
+      <c r="I40" s="12">
+        <f t="shared" si="7"/>
+        <v>3.5209125948868235E-2</v>
+      </c>
+      <c r="J40" s="12">
+        <f t="shared" si="7"/>
+        <v>6.0240961317546748E-2</v>
+      </c>
+      <c r="K40" s="12">
+        <f t="shared" si="7"/>
+        <v>1.8089232149736959E-2</v>
+      </c>
+      <c r="L40" s="12">
+        <f t="shared" si="7"/>
+        <v>7.1262335068082499E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41" t="s">
+        <v>62</v>
+      </c>
+      <c r="J41" t="s">
+        <v>62</v>
+      </c>
+      <c r="L41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G42" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G43" s="7">
+        <f>MAX(ABS(G27),ABS(G28))*$C36</f>
         <v>3118.9151407926802</v>
       </c>
-      <c r="H40" s="7">
-        <f t="shared" ref="H40:J40" si="5">MAX(ABS(H26),ABS(H27))*$C34</f>
-        <v>3274.1552027991802</v>
-      </c>
-      <c r="I40" s="7">
-        <f t="shared" si="5"/>
+      <c r="H43" s="7">
+        <f>MAX(ABS(H27),ABS(H28))*$C36</f>
+        <v>5322.0589744520603</v>
+      </c>
+      <c r="I43" s="7">
+        <f>MAX(ABS(I27),ABS(I28))*$C36</f>
         <v>9435.1896405948592</v>
       </c>
-      <c r="J40" s="7">
-        <f t="shared" si="5"/>
-        <v>10839.482004211141</v>
-      </c>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7">
-        <f>MAX(ABS(M26),ABS(M27))*$C34</f>
-        <v>5499.4002417148404</v>
-      </c>
-      <c r="N40" s="7">
-        <f>MAX(ABS(N26),ABS(N27))*$C34</f>
-        <v>18777.985864804879</v>
+      <c r="J43" s="7">
+        <f>MAX(ABS(J27),ABS(J28))*$C36</f>
+        <v>16549.452533923959</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7">
+        <f>MAX(ABS(M27),ABS(M28))*$C36</f>
+        <v>6507.5580130287999</v>
+      </c>
+      <c r="N43" s="7">
+        <f>MAX(ABS(N27),ABS(N28))*$C36</f>
+        <v>20876.733485094799</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O45" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O46" t="s">
+        <v>61</v>
+      </c>
+      <c r="P46" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="G28:N28"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G39:N39"/>
+    <mergeCell ref="G42:N42"/>
+    <mergeCell ref="G29:N29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RearVD.xlsx
+++ b/RearVD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\timot\Documents\Projects\Git\Wishbone-Forces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EB0CBD-68BF-4695-864A-F1DC31DD0DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9631CEA3-5297-402E-99A3-F20612173191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OutputForces" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>Scenario</t>
   </si>
@@ -221,7 +221,13 @@
     <t>16SWG</t>
   </si>
   <si>
-    <t>5/8" 16SWG</t>
+    <t>Outer diameter/in</t>
+  </si>
+  <si>
+    <t>3/4" 16SWG</t>
+  </si>
+  <si>
+    <t>lighter than 3/8"</t>
   </si>
 </sst>
 </file>
@@ -732,7 +738,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -743,11 +749,12 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="12" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -804,6 +811,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>692372</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>83819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>334319</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>4700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{622A2A90-F46E-FBE9-EE61-F62FA26D92FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15254192" y="5387339"/>
+          <a:ext cx="2827107" cy="2664081"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1095,7 +1151,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1103,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1216,7 +1272,7 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1228,28 +1284,28 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>782.97989744399797</v>
+        <v>1506.82438877599</v>
       </c>
       <c r="H3">
-        <v>-572.50061513668697</v>
+        <v>-944.74990536042901</v>
       </c>
       <c r="I3">
-        <v>-2167.8651733656202</v>
+        <v>-4518.3214961690201</v>
       </c>
       <c r="J3">
-        <v>2122.4985309691501</v>
+        <v>3501.7842803715998</v>
       </c>
       <c r="K3">
-        <v>-1068.2826776264901</v>
+        <v>-1068.3916275398401</v>
       </c>
       <c r="L3">
-        <v>198.952618202011</v>
+        <v>397.90523640403097</v>
       </c>
       <c r="M3">
-        <v>1249.0025217602399</v>
+        <v>2264.8407711424602</v>
       </c>
       <c r="N3">
-        <v>4128.2324555988698</v>
+        <v>7721.9579905340597</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1392,40 +1448,40 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>-1060</v>
+        <v>-1850</v>
       </c>
       <c r="D7">
-        <v>1060</v>
+        <v>1850</v>
       </c>
       <c r="E7">
-        <v>750</v>
+        <v>1600</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1351.10819353888</v>
+        <v>2381.0136997745299</v>
       </c>
       <c r="H7">
-        <v>-1637.0776013995901</v>
+        <v>-2934.8713278963301</v>
       </c>
       <c r="I7">
-        <v>-4275.8384419170598</v>
+        <v>-7391.6936711425997</v>
       </c>
       <c r="J7">
-        <v>5419.7410021055703</v>
+        <v>9747.3858912387495</v>
       </c>
       <c r="K7">
-        <v>-1161.3958171773299</v>
+        <v>-2441.46954884661</v>
       </c>
       <c r="L7">
-        <v>281.18636705878799</v>
+        <v>490.74979156486302</v>
       </c>
       <c r="M7">
-        <v>2749.7001208574202</v>
+        <v>4892.3848188607599</v>
       </c>
       <c r="N7">
-        <v>9334.3447114888095</v>
+        <v>16503.798787549102</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1480,40 +1536,40 @@
         <v>46</v>
       </c>
       <c r="C9">
-        <v>-1060</v>
+        <v>-1850</v>
       </c>
       <c r="D9">
-        <v>1060</v>
+        <v>1850</v>
       </c>
       <c r="E9">
-        <v>750</v>
+        <v>1600</v>
       </c>
       <c r="F9">
         <v>-200</v>
       </c>
       <c r="G9">
-        <v>1180.20419969452</v>
+        <v>2210.1097059301701</v>
       </c>
       <c r="H9">
-        <v>-1567.55180064512</v>
+        <v>-2865.3455271418602</v>
       </c>
       <c r="I9">
-        <v>-4441.7474166641796</v>
+        <v>-7557.6026458897304</v>
       </c>
       <c r="J9">
-        <v>5312.9148917375396</v>
+        <v>9640.5597808707298</v>
       </c>
       <c r="K9">
-        <v>-1161.52708552332</v>
+        <v>-2441.6008171926001</v>
       </c>
       <c r="L9">
-        <v>520.89450742733004</v>
+        <v>730.45793193340501</v>
       </c>
       <c r="M9">
-        <v>2530.9317284931799</v>
+        <v>4673.5869866784797</v>
       </c>
       <c r="N9">
-        <v>9388.9929324024397</v>
+        <v>16557.895121436901</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1744,7 +1800,7 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1756,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-664.70908521999104</v>
+        <v>-1388.5535765519801</v>
       </c>
       <c r="H15">
-        <v>171.997965310795</v>
+        <v>544.24725553453595</v>
       </c>
       <c r="I15">
-        <v>2533.04747224116</v>
+        <v>4883.5037950445603</v>
       </c>
       <c r="J15">
-        <v>-636.07296783575396</v>
+        <v>-2015.3587172381999</v>
       </c>
       <c r="K15">
-        <v>-1068.0647777997899</v>
+        <v>-1067.9558278864399</v>
       </c>
       <c r="L15">
-        <v>-198.95261820202899</v>
+        <v>-397.90523640404899</v>
       </c>
       <c r="M15">
-        <v>793.31437571462402</v>
+        <v>1807.81208020447</v>
       </c>
       <c r="N15">
-        <v>3092.79491279372</v>
+        <v>6683.9202222841204</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1920,40 +1976,40 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>1060</v>
+        <v>1850</v>
       </c>
       <c r="D19">
-        <v>1060</v>
+        <v>1850</v>
       </c>
       <c r="E19">
-        <v>750</v>
+        <v>1600</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-694.95890195955496</v>
+        <v>-1189.9524574633001</v>
       </c>
       <c r="H19">
-        <v>-584.85294103382103</v>
+        <v>-1098.4414961258699</v>
       </c>
       <c r="I19">
-        <v>2368.1180972072002</v>
+        <v>4203.89085468747</v>
       </c>
       <c r="J19">
-        <v>1520.95995046131</v>
+        <v>2942.9095275199902</v>
       </c>
       <c r="K19">
-        <v>-1161.08785208893</v>
+        <v>-2440.93206260742</v>
       </c>
       <c r="L19">
-        <v>-281.18636705892197</v>
+        <v>-490.74979156510301</v>
       </c>
       <c r="M19">
-        <v>513.39898419568306</v>
+        <v>903.89472471601198</v>
       </c>
       <c r="N19">
-        <v>1336.4547696890399</v>
+        <v>2293.4648660881298</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -2008,40 +2064,40 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1060</v>
+        <v>1850</v>
       </c>
       <c r="D21">
-        <v>1060</v>
+        <v>1850</v>
       </c>
       <c r="E21">
-        <v>750</v>
+        <v>1600</v>
       </c>
       <c r="F21">
         <v>-200</v>
       </c>
       <c r="G21">
-        <v>-865.86289580391599</v>
+        <v>-1360.8564513076601</v>
       </c>
       <c r="H21">
-        <v>-515.32714027935299</v>
+        <v>-1028.9156953714</v>
       </c>
       <c r="I21">
-        <v>2202.2091224600699</v>
+        <v>4037.9818799403502</v>
       </c>
       <c r="J21">
-        <v>1414.13384009328</v>
+        <v>2836.08341715196</v>
       </c>
       <c r="K21">
-        <v>-1161.2191204349199</v>
+        <v>-2441.0633309534101</v>
       </c>
       <c r="L21">
-        <v>-41.478226690380197</v>
+        <v>-251.04165119656099</v>
       </c>
       <c r="M21">
-        <v>631.60494796823195</v>
+        <v>988.15079280228599</v>
       </c>
       <c r="N21">
-        <v>1242.9232003530999</v>
+        <v>2200.38037186365</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -2272,7 +2328,7 @@
         <v>20</v>
       </c>
       <c r="C27">
-        <v>-1500</v>
+        <v>-1850</v>
       </c>
       <c r="D27">
         <v>-1500</v>
@@ -2287,10 +2343,10 @@
         <v>-1559.4575703963401</v>
       </c>
       <c r="H27">
-        <v>-2661.0294872260301</v>
+        <v>-2934.8713278963301</v>
       </c>
       <c r="I27">
-        <v>-4684.2304709161399</v>
+        <v>-7557.6026458897304</v>
       </c>
       <c r="J27">
         <v>-4040.1415493402001</v>
@@ -2299,7 +2355,7 @@
         <v>-2563.6169465115399</v>
       </c>
       <c r="L27">
-        <v>-281.18636705892197</v>
+        <v>-490.74979156510301</v>
       </c>
       <c r="M27">
         <v>96.946732237505202</v>
@@ -2316,7 +2372,7 @@
         <v>21</v>
       </c>
       <c r="C28">
-        <v>1500</v>
+        <v>1850</v>
       </c>
       <c r="D28">
         <v>2600</v>
@@ -2328,41 +2384,41 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1351.10819353888</v>
+        <v>2381.0136997745299</v>
       </c>
       <c r="H28">
         <v>1306.1007523281701</v>
       </c>
       <c r="I28">
-        <v>4717.5948202974296</v>
+        <v>4883.5037950445603</v>
       </c>
       <c r="J28">
-        <v>8274.7262669619795</v>
+        <v>9747.3858912387495</v>
       </c>
       <c r="K28">
         <v>-936.473576411267</v>
       </c>
       <c r="L28">
-        <v>637.61337677257302</v>
+        <v>730.45793193340501</v>
       </c>
       <c r="M28">
-        <v>3253.7790065144</v>
+        <v>4892.3848188607599</v>
       </c>
       <c r="N28">
-        <v>10438.3667425474</v>
+        <v>16557.895121436901</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
@@ -2379,14 +2435,14 @@
       <c r="C31" s="3">
         <v>240000000</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10" t="s">
+      <c r="H31" s="13"/>
+      <c r="I31" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J31" s="10"/>
+      <c r="J31" s="13"/>
       <c r="K31" s="2" t="s">
         <v>27</v>
       </c>
@@ -2425,355 +2481,392 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="J33" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="K33" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L33" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F34" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G33" s="4">
-        <f>25.4*4/8</f>
+      <c r="G34" s="5">
+        <f>G33*25.4</f>
         <v>12.7</v>
       </c>
-      <c r="H33" s="4">
-        <f t="shared" ref="H33:J33" si="0">25.4*4/8</f>
+      <c r="H34" s="5">
+        <f t="shared" ref="H34:L34" si="0">H33*25.4</f>
         <v>12.7</v>
       </c>
-      <c r="I33" s="4">
-        <f>25.4*5/8</f>
-        <v>15.875</v>
-      </c>
-      <c r="J33" s="4">
-        <f>25.4*5/8</f>
-        <v>15.875</v>
-      </c>
-      <c r="K33" s="4">
+      <c r="I34" s="5">
+        <f t="shared" si="0"/>
+        <v>19.049999999999997</v>
+      </c>
+      <c r="J34" s="5">
+        <f t="shared" si="0"/>
+        <v>19.049999999999997</v>
+      </c>
+      <c r="K34" s="5">
+        <f t="shared" si="0"/>
         <v>12.7</v>
       </c>
-      <c r="L33" s="4">
-        <f>3/8*25.4</f>
-        <v>9.5249999999999986</v>
-      </c>
-      <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="2" t="s">
+      <c r="L34" s="5">
+        <f t="shared" si="0"/>
+        <v>12.7</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C35" s="4">
         <v>2</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="5">
-        <f>G33/2000</f>
+      <c r="G35" s="5">
+        <f>G34/2000</f>
         <v>6.3499999999999997E-3</v>
       </c>
-      <c r="H34" s="5">
-        <f t="shared" ref="H34:L34" si="1">H33/2000</f>
+      <c r="H35" s="5">
+        <f t="shared" ref="H35:L35" si="1">H34/2000</f>
         <v>6.3499999999999997E-3</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I35" s="5">
         <f t="shared" si="1"/>
-        <v>7.9375000000000001E-3</v>
-      </c>
-      <c r="J34" s="5">
+        <v>9.5249999999999987E-3</v>
+      </c>
+      <c r="J35" s="5">
         <f t="shared" si="1"/>
-        <v>7.9375000000000001E-3</v>
-      </c>
-      <c r="K34" s="5">
+        <v>9.5249999999999987E-3</v>
+      </c>
+      <c r="K35" s="5">
         <f t="shared" si="1"/>
         <v>6.3499999999999997E-3</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L35" s="5">
         <f t="shared" si="1"/>
-        <v>4.7624999999999994E-3</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="2" t="s">
+        <v>6.3499999999999997E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C36" s="4">
         <v>2</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="6">
-        <f t="shared" ref="G35:L35" si="2">-G27*(G32/1000)^2/(PI()^2*$C30/$C34)</f>
+      <c r="G36" s="6">
+        <f t="shared" ref="G36:L36" si="2">-G27*(G32/1000)^2/(PI()^2*$C30/$C35)</f>
         <v>2.743723029846406E-10</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H36" s="6">
         <f t="shared" si="2"/>
-        <v>1.1540705653398992E-10</v>
-      </c>
-      <c r="I35" s="6">
+        <v>1.2728339271865722E-10</v>
+      </c>
+      <c r="I36" s="6">
         <f t="shared" si="2"/>
-        <v>1.1849202794913647E-9</v>
-      </c>
-      <c r="J35" s="6">
+        <v>1.9117668729269189E-9</v>
+      </c>
+      <c r="J36" s="6">
         <f t="shared" si="2"/>
         <v>4.5067697522301772E-10</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K36" s="6">
         <f t="shared" si="2"/>
         <v>3.3137997443949822E-10</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L36" s="6">
         <f t="shared" si="2"/>
-        <v>4.2120901712699626E-11</v>
-      </c>
-      <c r="N35" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="2" t="s">
+        <v>7.3512894498580041E-11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C37" s="4">
         <v>2</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="8">
-        <f>IF(G35&gt;0,(G34-((-G35+PI() * (G34)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
+      <c r="G37" s="8">
+        <f>IF(G36&gt;0,(G35-((-G36+PI() * (G35)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
         <v>0.37262494213785841</v>
       </c>
-      <c r="H36" s="8">
-        <f t="shared" ref="H36:L36" si="3">IF(H35&gt;0,(H34-((-H35+PI() * (H34)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
-        <v>0.14860577677536929</v>
-      </c>
-      <c r="I36" s="8">
+      <c r="H37" s="8">
+        <f t="shared" ref="H37:L37" si="3">IF(H36&gt;0,(H35-((-H36+PI() * (H35)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
+        <v>0.16451820685664792</v>
+      </c>
+      <c r="I37" s="8">
         <f t="shared" si="3"/>
-        <v>0.89431179910125314</v>
-      </c>
-      <c r="J36" s="8">
+        <v>0.79928829912943167</v>
+      </c>
+      <c r="J37" s="8">
         <f t="shared" si="3"/>
-        <v>0.30386398894015082</v>
-      </c>
-      <c r="K36" s="8">
+        <v>0.17052994627606877</v>
+      </c>
+      <c r="K37" s="8">
         <f t="shared" si="3"/>
         <v>0.45946649660331873</v>
       </c>
-      <c r="L36" s="8">
+      <c r="L37" s="8">
         <f t="shared" si="3"/>
-        <v>0.12929055889357097</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="E37" s="2" t="s">
+        <v>9.3430575528385615E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G37" s="6">
-        <f t="shared" ref="G37:L37" si="4">G28/$C31*$C35</f>
-        <v>1.1259234946157332E-5</v>
-      </c>
-      <c r="H37" s="6">
+      <c r="G38" s="6">
+        <f t="shared" ref="G38:L38" si="4">G28/$C31*$C36</f>
+        <v>1.9841780831454414E-5</v>
+      </c>
+      <c r="H38" s="6">
         <f t="shared" si="4"/>
         <v>1.0884172936068084E-5</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I38" s="6">
         <f t="shared" si="4"/>
-        <v>3.9313290169145244E-5</v>
-      </c>
-      <c r="J37" s="6">
+        <v>4.0695864958704673E-5</v>
+      </c>
+      <c r="J38" s="6">
         <f t="shared" si="4"/>
-        <v>6.8956052224683164E-5</v>
-      </c>
-      <c r="K37" s="6">
+        <v>8.1228215760322913E-5</v>
+      </c>
+      <c r="K38" s="6">
         <f t="shared" si="4"/>
         <v>-7.8039464700938912E-6</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L38" s="6">
         <f t="shared" si="4"/>
-        <v>5.3134448064381082E-6</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="F38" s="2" t="s">
+        <v>6.0871494327783753E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F39" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="8">
-        <f>(G34-(G34^2-G37/PI())^0.5)*1000</f>
-        <v>0.28876463039323108</v>
-      </c>
-      <c r="H38" s="8">
-        <f t="shared" ref="H38:L38" si="5">(H34-(H34^2-H37/PI())^0.5)*1000</f>
+      <c r="G39" s="8">
+        <f>(G35-(G35^2-G38/PI())^0.5)*1000</f>
+        <v>0.51847661396646483</v>
+      </c>
+      <c r="H39" s="8">
+        <f t="shared" ref="H39:L39" si="5">(H35-(H35^2-H38/PI())^0.5)*1000</f>
         <v>0.27892430029772403</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I39" s="8">
         <f t="shared" si="5"/>
-        <v>0.8318615817613515</v>
-      </c>
-      <c r="J38" s="8">
+        <v>0.70617191136805246</v>
+      </c>
+      <c r="J39" s="8">
         <f t="shared" si="5"/>
-        <v>1.5301204174656873</v>
-      </c>
-      <c r="K38" s="8">
+        <v>1.4708159391270907</v>
+      </c>
+      <c r="K39" s="8">
         <f t="shared" si="5"/>
         <v>-0.19267325431126647</v>
       </c>
-      <c r="L38" s="8">
+      <c r="L39" s="8">
         <f t="shared" si="5"/>
-        <v>0.18100633107292954</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="E39" s="2" t="s">
+        <v>0.1544451292181592</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G39" s="9">
-        <f t="shared" ref="G39:L39" si="6">MAX(G38,G36)</f>
-        <v>0.37262494213785841</v>
-      </c>
-      <c r="H39" s="9">
+      <c r="G40" s="9">
+        <f t="shared" ref="G40:L40" si="6">MAX(G39,G37)</f>
+        <v>0.51847661396646483</v>
+      </c>
+      <c r="H40" s="9">
         <f t="shared" si="6"/>
         <v>0.27892430029772403</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I40" s="9">
         <f t="shared" si="6"/>
-        <v>0.89431179910125314</v>
-      </c>
-      <c r="J39" s="9">
+        <v>0.79928829912943167</v>
+      </c>
+      <c r="J40" s="9">
         <f t="shared" si="6"/>
-        <v>1.5301204174656873</v>
-      </c>
-      <c r="K39" s="9">
+        <v>1.4708159391270907</v>
+      </c>
+      <c r="K40" s="9">
         <f t="shared" si="6"/>
         <v>0.45946649660331873</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L40" s="9">
         <f t="shared" si="6"/>
-        <v>0.18100633107292954</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="E40" s="11"/>
-      <c r="F40" s="2" t="s">
+        <v>0.1544451292181592</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E41" s="10"/>
+      <c r="F41" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G40" s="12">
-        <f>G39/25.4</f>
-        <v>1.4670273312514111E-2</v>
-      </c>
-      <c r="H40" s="12">
-        <f t="shared" ref="H40:L40" si="7">H39/25.4</f>
+      <c r="G41" s="11">
+        <f>G40/25.4</f>
+        <v>2.0412465116789954E-2</v>
+      </c>
+      <c r="H41" s="11">
+        <f t="shared" ref="H41:L41" si="7">H40/25.4</f>
         <v>1.0981271665264726E-2</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I41" s="11">
         <f t="shared" si="7"/>
-        <v>3.5209125948868235E-2</v>
-      </c>
-      <c r="J40" s="12">
+        <v>3.1468043272812274E-2</v>
+      </c>
+      <c r="J41" s="11">
         <f t="shared" si="7"/>
-        <v>6.0240961317546748E-2</v>
-      </c>
-      <c r="K40" s="12">
+        <v>5.7906139335712238E-2</v>
+      </c>
+      <c r="K41" s="11">
         <f t="shared" si="7"/>
         <v>1.8089232149736959E-2</v>
       </c>
-      <c r="L40" s="12">
+      <c r="L41" s="11">
         <f t="shared" si="7"/>
-        <v>7.1262335068082499E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G41" t="s">
+        <v>6.0805168983527249E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G43" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G44" s="7">
+        <f>MAX(ABS(G27),ABS(G28))*$C37</f>
+        <v>4762.0273995490597</v>
+      </c>
+      <c r="H44" s="7">
+        <f>MAX(ABS(H27),ABS(H28))*$C37</f>
+        <v>5869.7426557926601</v>
+      </c>
+      <c r="I44" s="7">
+        <f>MAX(ABS(I27),ABS(I28))*$C37</f>
+        <v>15115.205291779461</v>
+      </c>
+      <c r="J44" s="7">
+        <f>MAX(ABS(J27),ABS(J28))*$C37</f>
+        <v>19494.771782477499</v>
+      </c>
+      <c r="K44" s="7">
+        <f t="shared" ref="K44:L44" si="8">MAX(ABS(K27),ABS(K28))*$C37</f>
+        <v>5127.2338930230799</v>
+      </c>
+      <c r="L44" s="7">
+        <f t="shared" si="8"/>
+        <v>1460.91586386681</v>
+      </c>
+      <c r="M44" s="7">
+        <f>MAX(ABS(M27),ABS(M28))*$C37</f>
+        <v>9784.7696377215198</v>
+      </c>
+      <c r="N44" s="7">
+        <f>MAX(ABS(N27),ABS(N28))*$C37</f>
+        <v>33115.790242873802</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H45" t="s">
+        <v>59</v>
+      </c>
+      <c r="L45" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" t="s">
         <v>55</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H46" t="s">
         <v>55</v>
       </c>
-      <c r="I41" t="s">
-        <v>62</v>
-      </c>
-      <c r="J41" t="s">
-        <v>62</v>
-      </c>
-      <c r="L41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G42" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G43" s="7">
-        <f>MAX(ABS(G27),ABS(G28))*$C36</f>
-        <v>3118.9151407926802</v>
-      </c>
-      <c r="H43" s="7">
-        <f>MAX(ABS(H27),ABS(H28))*$C36</f>
-        <v>5322.0589744520603</v>
-      </c>
-      <c r="I43" s="7">
-        <f>MAX(ABS(I27),ABS(I28))*$C36</f>
-        <v>9435.1896405948592</v>
-      </c>
-      <c r="J43" s="7">
-        <f>MAX(ABS(J27),ABS(J28))*$C36</f>
-        <v>16549.452533923959</v>
-      </c>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7">
-        <f>MAX(ABS(M27),ABS(M28))*$C36</f>
-        <v>6507.5580130287999</v>
-      </c>
-      <c r="N43" s="7">
-        <f>MAX(ABS(N27),ABS(N28))*$C36</f>
-        <v>20876.733485094799</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="P44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="O45" t="s">
+      <c r="L46" t="s">
+        <v>55</v>
+      </c>
+      <c r="O46" t="s">
         <v>60</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P46" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="O46" t="s">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I47" t="s">
+        <v>63</v>
+      </c>
+      <c r="J47" t="s">
+        <v>63</v>
+      </c>
+      <c r="O47" t="s">
         <v>61</v>
       </c>
-      <c r="P46" t="s">
+      <c r="P47" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="G42:N42"/>
+    <mergeCell ref="G43:N43"/>
     <mergeCell ref="G29:N29"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="I31:J31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/RearVD.xlsx
+++ b/RearVD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\timot\Documents\Projects\Git\Wishbone-Forces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9631CEA3-5297-402E-99A3-F20612173191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B536079-1AAE-4AA6-AA5F-5B73EC92696E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1151,7 +1151,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1161,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1258,10 +1258,10 @@
         <v>-9.1612915170680105E-12</v>
       </c>
       <c r="M2">
-        <v>244.85769893052901</v>
+        <v>165.04510306364801</v>
       </c>
       <c r="N2">
-        <v>595.44235304784195</v>
+        <v>903.80193475732005</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -1302,10 +1302,10 @@
         <v>397.90523640403097</v>
       </c>
       <c r="M3">
-        <v>2264.8407711424602</v>
+        <v>1093.9106572056901</v>
       </c>
       <c r="N3">
-        <v>7721.9579905340597</v>
+        <v>2393.0752956036599</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1346,10 +1346,10 @@
         <v>239.70814036853201</v>
       </c>
       <c r="M4">
-        <v>96.946732237505202</v>
+        <v>223.07866515841101</v>
       </c>
       <c r="N4">
-        <v>622.24019855165795</v>
+        <v>650.65329920769705</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1390,10 +1390,10 @@
         <v>637.61337677257302</v>
       </c>
       <c r="M5">
-        <v>2041.0290817325899</v>
+        <v>967.26488475338499</v>
       </c>
       <c r="N5">
-        <v>7781.76874180507</v>
+        <v>2525.78451387528</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1407,37 +1407,37 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="E6">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>785.81781904075001</v>
+        <v>484.79323030429703</v>
       </c>
       <c r="H6">
-        <v>-2661.0294872260301</v>
+        <v>-1641.6643270090999</v>
       </c>
       <c r="I6">
-        <v>-2397.99432459032</v>
+        <v>-1471.9433556568599</v>
       </c>
       <c r="J6">
-        <v>8274.7262669619795</v>
+        <v>5107.3846315984802</v>
       </c>
       <c r="K6">
-        <v>-2507.0508813779502</v>
+        <v>-1564.7117983395201</v>
       </c>
       <c r="L6" s="1">
-        <v>-1.6123907764509201E-10</v>
+        <v>-9.9411971710150404E-11</v>
       </c>
       <c r="M6">
-        <v>3253.7790065144</v>
+        <v>1353.04302313567</v>
       </c>
       <c r="N6">
-        <v>10393.308077022</v>
+        <v>3930.2026047035802</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1448,40 +1448,40 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>-1850</v>
+        <v>-1400</v>
       </c>
       <c r="D7">
-        <v>1850</v>
+        <v>1400</v>
       </c>
       <c r="E7">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2381.0136997745299</v>
+        <v>1785.22636135465</v>
       </c>
       <c r="H7">
-        <v>-2934.8713278963301</v>
+        <v>-2164.6968487027698</v>
       </c>
       <c r="I7">
-        <v>-7391.6936711425997</v>
+        <v>-5645.0370471931301</v>
       </c>
       <c r="J7">
-        <v>9747.3858912387495</v>
+        <v>7167.4970817943604</v>
       </c>
       <c r="K7">
-        <v>-2441.46954884661</v>
+        <v>-1547.3551513375201</v>
       </c>
       <c r="L7">
-        <v>490.74979156486302</v>
+        <v>371.37822064368203</v>
       </c>
       <c r="M7">
-        <v>4892.3848188607599</v>
+        <v>1592.10820274409</v>
       </c>
       <c r="N7">
-        <v>16503.798787549102</v>
+        <v>3784.1894868436798</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1495,37 +1495,37 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="E8">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="F8">
         <v>-200</v>
       </c>
       <c r="G8">
-        <v>614.91382519638898</v>
+        <v>313.889236459936</v>
       </c>
       <c r="H8">
-        <v>-2591.5036864715598</v>
+        <v>-1572.1385262546301</v>
       </c>
       <c r="I8">
-        <v>-2563.9032993374399</v>
+        <v>-1637.85233040398</v>
       </c>
       <c r="J8">
-        <v>8167.9001565939498</v>
+        <v>5000.5585212304504</v>
       </c>
       <c r="K8">
-        <v>-2507.1821497239398</v>
+        <v>-1564.8430666855099</v>
       </c>
       <c r="L8">
-        <v>239.70814036837999</v>
+        <v>239.708140368442</v>
       </c>
       <c r="M8">
-        <v>3048.8096736365101</v>
+        <v>1374.2226637475901</v>
       </c>
       <c r="N8">
-        <v>10438.3667425474</v>
+        <v>3706.3877589865101</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1536,40 +1536,40 @@
         <v>46</v>
       </c>
       <c r="C9">
-        <v>-1850</v>
+        <v>-1400</v>
       </c>
       <c r="D9">
-        <v>1850</v>
+        <v>1400</v>
       </c>
       <c r="E9">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="F9">
         <v>-200</v>
       </c>
       <c r="G9">
-        <v>2210.1097059301701</v>
+        <v>1614.32236751029</v>
       </c>
       <c r="H9">
-        <v>-2865.3455271418602</v>
+        <v>-2095.1710479482999</v>
       </c>
       <c r="I9">
-        <v>-7557.6026458897304</v>
+        <v>-5810.9460219402499</v>
       </c>
       <c r="J9">
-        <v>9640.5597808707298</v>
+        <v>7060.6709714263297</v>
       </c>
       <c r="K9">
-        <v>-2441.6008171926001</v>
+        <v>-1547.4864196835099</v>
       </c>
       <c r="L9">
-        <v>730.45793193340501</v>
+        <v>611.08636101222498</v>
       </c>
       <c r="M9">
-        <v>4673.5869866784797</v>
+        <v>1524.37235655983</v>
       </c>
       <c r="N9">
-        <v>16557.895121436901</v>
+        <v>3705.7555794148502</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1610,10 +1610,10 @@
         <v>7.2585817564863003E-11</v>
       </c>
       <c r="M10">
-        <v>1330.95917537482</v>
+        <v>897.12635229648697</v>
       </c>
       <c r="N10">
-        <v>4735.04864403802</v>
+        <v>1846.9696582387601</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1654,10 +1654,10 @@
         <v>281.18636705890401</v>
       </c>
       <c r="M11">
-        <v>698.74093397262595</v>
+        <v>949.95594792080499</v>
       </c>
       <c r="N11">
-        <v>1973.60649845751</v>
+        <v>2032.4286608733601</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1698,10 +1698,10 @@
         <v>239.70814036861401</v>
       </c>
       <c r="M12">
-        <v>1539.79638887957</v>
+        <v>892.10641144533497</v>
       </c>
       <c r="N12">
-        <v>4684.68047103956</v>
+        <v>2026.4894858642101</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1742,10 +1742,10 @@
         <v>520.894507427446</v>
       </c>
       <c r="M13">
-        <v>501.77619694052498</v>
+        <v>838.02831118205597</v>
       </c>
       <c r="N13">
-        <v>2049.7898472729298</v>
+        <v>2290.4371770596199</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1786,10 +1786,10 @@
         <v>-9.1612915170680105E-12</v>
       </c>
       <c r="M14">
-        <v>244.85769893052901</v>
+        <v>165.04510306364801</v>
       </c>
       <c r="N14">
-        <v>595.44235304784195</v>
+        <v>903.80193475732005</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1830,10 +1830,10 @@
         <v>-397.90523640404899</v>
       </c>
       <c r="M15">
-        <v>1807.81208020447</v>
+        <v>1086.45648918451</v>
       </c>
       <c r="N15">
-        <v>6683.9202222841204</v>
+        <v>3338.5282105842098</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1874,10 +1874,10 @@
         <v>239.70814036853201</v>
       </c>
       <c r="M16">
-        <v>96.946732237505202</v>
+        <v>223.07866515841101</v>
       </c>
       <c r="N16">
-        <v>622.24019855165795</v>
+        <v>650.65329920769705</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1918,10 +1918,10 @@
         <v>-158.197096035507</v>
       </c>
       <c r="M17">
-        <v>2032.4308784842201</v>
+        <v>1219.2109256275</v>
       </c>
       <c r="N17">
-        <v>6619.1209788217302</v>
+        <v>3115.4415625655001</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -1935,37 +1935,37 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="E18">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>785.81781904075001</v>
+        <v>484.79323030429703</v>
       </c>
       <c r="H18">
-        <v>-2661.0294872260301</v>
+        <v>-1641.6643270090999</v>
       </c>
       <c r="I18">
-        <v>-2397.99432459032</v>
+        <v>-1471.9433556568599</v>
       </c>
       <c r="J18">
-        <v>8274.7262669619795</v>
+        <v>5107.3846315984802</v>
       </c>
       <c r="K18">
-        <v>-2507.0508813779502</v>
+        <v>-1564.7117983395201</v>
       </c>
       <c r="L18" s="1">
-        <v>-1.6123907764509201E-10</v>
+        <v>-9.9411971710150404E-11</v>
       </c>
       <c r="M18">
-        <v>3253.7790065144</v>
+        <v>1353.04302313567</v>
       </c>
       <c r="N18">
-        <v>10393.308077022</v>
+        <v>3930.2026047035802</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -1976,40 +1976,40 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>1850</v>
+        <v>1400</v>
       </c>
       <c r="D19">
-        <v>1850</v>
+        <v>1400</v>
       </c>
       <c r="E19">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-1189.9524574633001</v>
+        <v>-917.12640628479505</v>
       </c>
       <c r="H19">
-        <v>-1098.4414961258699</v>
+        <v>-774.96616520080795</v>
       </c>
       <c r="I19">
-        <v>4203.89085468747</v>
+        <v>3129.9998912728802</v>
       </c>
       <c r="J19">
-        <v>2942.9095275199902</v>
+        <v>2018.16361735854</v>
       </c>
       <c r="K19">
-        <v>-2440.93206260742</v>
+        <v>-1546.9484049943501</v>
       </c>
       <c r="L19">
-        <v>-490.74979156510301</v>
+        <v>-371.37822064385898</v>
       </c>
       <c r="M19">
-        <v>903.89472471601198</v>
+        <v>1556.7488099764</v>
       </c>
       <c r="N19">
-        <v>2293.4648660881298</v>
+        <v>4962.8388446592899</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -2023,37 +2023,37 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="E20">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="F20">
         <v>-200</v>
       </c>
       <c r="G20">
-        <v>614.91382519638898</v>
+        <v>313.889236459936</v>
       </c>
       <c r="H20">
-        <v>-2591.5036864715598</v>
+        <v>-1572.1385262546301</v>
       </c>
       <c r="I20">
-        <v>-2563.9032993374399</v>
+        <v>-1637.85233040398</v>
       </c>
       <c r="J20">
-        <v>8167.9001565939498</v>
+        <v>5000.5585212304504</v>
       </c>
       <c r="K20">
-        <v>-2507.1821497239398</v>
+        <v>-1564.8430666855099</v>
       </c>
       <c r="L20">
-        <v>239.70814036837999</v>
+        <v>239.708140368442</v>
       </c>
       <c r="M20">
-        <v>3048.8096736365101</v>
+        <v>1374.2226637475901</v>
       </c>
       <c r="N20">
-        <v>10438.3667425474</v>
+        <v>3706.3877589865101</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -2064,40 +2064,40 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1850</v>
+        <v>1400</v>
       </c>
       <c r="D21">
-        <v>1850</v>
+        <v>1400</v>
       </c>
       <c r="E21">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="F21">
         <v>-200</v>
       </c>
       <c r="G21">
-        <v>-1360.8564513076601</v>
+        <v>-1088.0304001291499</v>
       </c>
       <c r="H21">
-        <v>-1028.9156953714</v>
+        <v>-705.440364446339</v>
       </c>
       <c r="I21">
-        <v>4037.9818799403502</v>
+        <v>2964.0909165257499</v>
       </c>
       <c r="J21">
-        <v>2836.08341715196</v>
+        <v>1911.3375069905101</v>
       </c>
       <c r="K21">
-        <v>-2441.0633309534101</v>
+        <v>-1547.0796733403399</v>
       </c>
       <c r="L21">
-        <v>-251.04165119656099</v>
+        <v>-131.67008027531699</v>
       </c>
       <c r="M21">
-        <v>988.15079280228599</v>
+        <v>1655.8042477040101</v>
       </c>
       <c r="N21">
-        <v>2200.38037186365</v>
+        <v>4699.91872820756</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -2138,10 +2138,10 @@
         <v>7.2585817564863003E-11</v>
       </c>
       <c r="M22">
-        <v>1330.95917537482</v>
+        <v>897.12635229648697</v>
       </c>
       <c r="N22">
-        <v>4735.04864403802</v>
+        <v>1846.9696582387601</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -2182,10 +2182,10 @@
         <v>-281.18636705880601</v>
       </c>
       <c r="M23">
-        <v>2270.42873909625</v>
+        <v>971.16660771438796</v>
       </c>
       <c r="N23">
-        <v>8252.5289400097699</v>
+        <v>2432.2528265271199</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -2226,10 +2226,10 @@
         <v>239.70814036861401</v>
       </c>
       <c r="M24">
-        <v>1539.79638887957</v>
+        <v>892.10641144533497</v>
       </c>
       <c r="N24">
-        <v>4684.68047103956</v>
+        <v>2026.4894858642101</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -2270,10 +2270,10 @@
         <v>-41.478226690264698</v>
       </c>
       <c r="M25">
-        <v>2491.7802375000801</v>
+        <v>1069.4902033849401</v>
       </c>
       <c r="N25">
-        <v>8194.2845539849095</v>
+        <v>2356.3613396361002</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -2314,10 +2314,10 @@
         <v>-2.1987099640963201E-11</v>
       </c>
       <c r="M26">
-        <v>587.65847743327004</v>
+        <v>396.10824735275497</v>
       </c>
       <c r="N26">
-        <v>1429.06164731482</v>
+        <v>2169.12464341757</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -2328,7 +2328,7 @@
         <v>20</v>
       </c>
       <c r="C27">
-        <v>-1850</v>
+        <v>-1500</v>
       </c>
       <c r="D27">
         <v>-1500</v>
@@ -2343,10 +2343,10 @@
         <v>-1559.4575703963401</v>
       </c>
       <c r="H27">
-        <v>-2934.8713278963301</v>
+        <v>-2164.6968487027698</v>
       </c>
       <c r="I27">
-        <v>-7557.6026458897304</v>
+        <v>-5810.9460219402499</v>
       </c>
       <c r="J27">
         <v>-4040.1415493402001</v>
@@ -2355,13 +2355,13 @@
         <v>-2563.6169465115399</v>
       </c>
       <c r="L27">
-        <v>-490.74979156510301</v>
+        <v>-397.90523640404899</v>
       </c>
       <c r="M27">
-        <v>96.946732237505202</v>
+        <v>165.04510306364801</v>
       </c>
       <c r="N27">
-        <v>595.44235304784195</v>
+        <v>650.65329920769705</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -2372,10 +2372,10 @@
         <v>21</v>
       </c>
       <c r="C28">
-        <v>1850</v>
+        <v>1500</v>
       </c>
       <c r="D28">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="E28">
         <v>1800</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>2381.0136997745299</v>
+        <v>1785.22636135465</v>
       </c>
       <c r="H28">
         <v>1306.1007523281701</v>
@@ -2393,19 +2393,19 @@
         <v>4883.5037950445603</v>
       </c>
       <c r="J28">
-        <v>9747.3858912387495</v>
+        <v>7167.4970817943604</v>
       </c>
       <c r="K28">
         <v>-936.473576411267</v>
       </c>
       <c r="L28">
-        <v>730.45793193340501</v>
+        <v>637.61337677257302</v>
       </c>
       <c r="M28">
-        <v>4892.3848188607599</v>
+        <v>1655.8042477040101</v>
       </c>
       <c r="N28">
-        <v>16557.895121436901</v>
+        <v>4962.8388446592899</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -2591,11 +2591,11 @@
       </c>
       <c r="H36" s="6">
         <f t="shared" si="2"/>
-        <v>1.2728339271865722E-10</v>
+        <v>9.3881444304329993E-11</v>
       </c>
       <c r="I36" s="6">
         <f t="shared" si="2"/>
-        <v>1.9117668729269189E-9</v>
+        <v>1.4699336053548215E-9</v>
       </c>
       <c r="J36" s="6">
         <f t="shared" si="2"/>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="L36" s="6">
         <f t="shared" si="2"/>
-        <v>7.3512894498580041E-11</v>
+        <v>5.9605049593430015E-11</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
@@ -2626,11 +2626,11 @@
       </c>
       <c r="H37" s="8">
         <f t="shared" ref="H37:L37" si="3">IF(H36&gt;0,(H35-((-H36+PI() * (H35)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
-        <v>0.16451820685664792</v>
+        <v>0.12007316742527682</v>
       </c>
       <c r="I37" s="8">
         <f t="shared" si="3"/>
-        <v>0.79928829912943167</v>
+        <v>0.59489034343020863</v>
       </c>
       <c r="J37" s="8">
         <f t="shared" si="3"/>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="L37" s="8">
         <f t="shared" si="3"/>
-        <v>9.3430575528385615E-2</v>
+        <v>7.5432435583476676E-2</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="G38" s="6">
         <f t="shared" ref="G38:L38" si="4">G28/$C31*$C36</f>
-        <v>1.9841780831454414E-5</v>
+        <v>1.4876886344622083E-5</v>
       </c>
       <c r="H38" s="6">
         <f t="shared" si="4"/>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="J38" s="6">
         <f t="shared" si="4"/>
-        <v>8.1228215760322913E-5</v>
+        <v>5.972914234828634E-5</v>
       </c>
       <c r="K38" s="6">
         <f t="shared" si="4"/>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="L38" s="6">
         <f t="shared" si="4"/>
-        <v>6.0871494327783753E-6</v>
+        <v>5.3134448064381082E-6</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="G39" s="8">
         <f>(G35-(G35^2-G38/PI())^0.5)*1000</f>
-        <v>0.51847661396646483</v>
+        <v>0.3845125931845137</v>
       </c>
       <c r="H39" s="8">
         <f t="shared" ref="H39:L39" si="5">(H35-(H35^2-H38/PI())^0.5)*1000</f>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="J39" s="8">
         <f t="shared" si="5"/>
-        <v>1.4708159391270907</v>
+        <v>1.0566324774333551</v>
       </c>
       <c r="K39" s="8">
         <f t="shared" si="5"/>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="L39" s="8">
         <f t="shared" si="5"/>
-        <v>0.1544451292181592</v>
+        <v>0.13460154226466009</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="G40" s="9">
         <f t="shared" ref="G40:L40" si="6">MAX(G39,G37)</f>
-        <v>0.51847661396646483</v>
+        <v>0.3845125931845137</v>
       </c>
       <c r="H40" s="9">
         <f t="shared" si="6"/>
@@ -2723,11 +2723,11 @@
       </c>
       <c r="I40" s="9">
         <f t="shared" si="6"/>
-        <v>0.79928829912943167</v>
+        <v>0.70617191136805246</v>
       </c>
       <c r="J40" s="9">
         <f t="shared" si="6"/>
-        <v>1.4708159391270907</v>
+        <v>1.0566324774333551</v>
       </c>
       <c r="K40" s="9">
         <f t="shared" si="6"/>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="L40" s="9">
         <f t="shared" si="6"/>
-        <v>0.1544451292181592</v>
+        <v>0.13460154226466009</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="G41" s="11">
         <f>G40/25.4</f>
-        <v>2.0412465116789954E-2</v>
+        <v>1.5138291070256446E-2</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" ref="H41:L41" si="7">H40/25.4</f>
@@ -2753,11 +2753,11 @@
       </c>
       <c r="I41" s="11">
         <f t="shared" si="7"/>
-        <v>3.1468043272812274E-2</v>
+        <v>2.7802043754647735E-2</v>
       </c>
       <c r="J41" s="11">
         <f t="shared" si="7"/>
-        <v>5.7906139335712238E-2</v>
+        <v>4.1599703835958866E-2</v>
       </c>
       <c r="K41" s="11">
         <f t="shared" si="7"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="L41" s="11">
         <f t="shared" si="7"/>
-        <v>6.0805168983527249E-3</v>
+        <v>5.2992733175063027E-3</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
@@ -2783,19 +2783,19 @@
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="G44" s="7">
         <f>MAX(ABS(G27),ABS(G28))*$C37</f>
-        <v>4762.0273995490597</v>
+        <v>3570.4527227092999</v>
       </c>
       <c r="H44" s="7">
         <f>MAX(ABS(H27),ABS(H28))*$C37</f>
-        <v>5869.7426557926601</v>
+        <v>4329.3936974055396</v>
       </c>
       <c r="I44" s="7">
         <f>MAX(ABS(I27),ABS(I28))*$C37</f>
-        <v>15115.205291779461</v>
+        <v>11621.8920438805</v>
       </c>
       <c r="J44" s="7">
         <f>MAX(ABS(J27),ABS(J28))*$C37</f>
-        <v>19494.771782477499</v>
+        <v>14334.994163588721</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" ref="K44:L44" si="8">MAX(ABS(K27),ABS(K28))*$C37</f>
@@ -2803,15 +2803,15 @@
       </c>
       <c r="L44" s="7">
         <f t="shared" si="8"/>
-        <v>1460.91586386681</v>
+        <v>1275.226753545146</v>
       </c>
       <c r="M44" s="7">
         <f>MAX(ABS(M27),ABS(M28))*$C37</f>
-        <v>9784.7696377215198</v>
+        <v>3311.6084954080202</v>
       </c>
       <c r="N44" s="7">
         <f>MAX(ABS(N27),ABS(N28))*$C37</f>
-        <v>33115.790242873802</v>
+        <v>9925.6776893185797</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">

--- a/RearVD.xlsx
+++ b/RearVD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\timot\Documents\Projects\Git\Wishbone-Forces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B536079-1AAE-4AA6-AA5F-5B73EC92696E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AF8C09-59E3-4F3F-8F23-AAB4DA10F2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>Scenario</t>
   </si>
@@ -86,15 +86,6 @@
     <t>Corner Outside Brake</t>
   </si>
   <si>
-    <t xml:space="preserve">Corner Inside </t>
-  </si>
-  <si>
-    <t>Corner Inside Brake</t>
-  </si>
-  <si>
-    <t>Accelerate and below</t>
-  </si>
-  <si>
     <t>Max compression</t>
   </si>
   <si>
@@ -164,27 +155,6 @@
     <t>Rod ends and spherical bearings - load requirements</t>
   </si>
   <si>
-    <t>Impact</t>
-  </si>
-  <si>
-    <t>Brake Impact</t>
-  </si>
-  <si>
-    <t>Corner Outside Impact</t>
-  </si>
-  <si>
-    <t>Corner Outside Brake Impact</t>
-  </si>
-  <si>
-    <t>Corner Inner Impact</t>
-  </si>
-  <si>
-    <t>Corner Inner Brake Impact</t>
-  </si>
-  <si>
-    <t>Full squat</t>
-  </si>
-  <si>
     <t>Outer diameter/mm</t>
   </si>
   <si>
@@ -228,6 +198,9 @@
   </si>
   <si>
     <t>lighter than 3/8"</t>
+  </si>
+  <si>
+    <t>Corner + Accelerate</t>
   </si>
 </sst>
 </file>
@@ -738,7 +711,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -755,6 +728,7 @@
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1159,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A10:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1179,939 +1153,68 @@
     <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="10" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L10" s="1"/>
+    </row>
+    <row r="14" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L14" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L18" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E21" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G21" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H21" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I21" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J21" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K21" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L21" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M21" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B22" t="s">
         <v>13</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>750</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>59.135406112003601</v>
-      </c>
-      <c r="H2">
-        <v>-200.25132491294599</v>
-      </c>
-      <c r="I2">
-        <v>182.591149437768</v>
-      </c>
-      <c r="J2">
-        <v>743.212781566697</v>
-      </c>
-      <c r="K2">
-        <v>-1068.1737277131399</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-9.1612915170680105E-12</v>
-      </c>
-      <c r="M2">
-        <v>165.04510306364801</v>
-      </c>
-      <c r="N2">
-        <v>903.80193475732005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>-1500</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>750</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1506.82438877599</v>
-      </c>
-      <c r="H3">
-        <v>-944.74990536042901</v>
-      </c>
-      <c r="I3">
-        <v>-4518.3214961690201</v>
-      </c>
-      <c r="J3">
-        <v>3501.7842803715998</v>
-      </c>
-      <c r="K3">
-        <v>-1068.3916275398401</v>
-      </c>
-      <c r="L3">
-        <v>397.90523640403097</v>
-      </c>
-      <c r="M3">
-        <v>1093.9106572056901</v>
-      </c>
-      <c r="N3">
-        <v>2393.0752956036599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>750</v>
-      </c>
-      <c r="F4">
-        <v>-200</v>
-      </c>
-      <c r="G4">
-        <v>-111.76858773235701</v>
-      </c>
-      <c r="H4">
-        <v>-130.72552415847699</v>
-      </c>
-      <c r="I4">
-        <v>16.682174690643201</v>
-      </c>
-      <c r="J4">
-        <v>636.38667119867</v>
-      </c>
-      <c r="K4">
-        <v>-1068.30499605913</v>
-      </c>
-      <c r="L4">
-        <v>239.70814036853201</v>
-      </c>
-      <c r="M4">
-        <v>223.07866515841101</v>
-      </c>
-      <c r="N4">
-        <v>650.65329920769705</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5">
-        <v>-1500</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>750</v>
-      </c>
-      <c r="F5">
-        <v>-200</v>
-      </c>
-      <c r="G5">
-        <v>1335.92039493163</v>
-      </c>
-      <c r="H5">
-        <v>-875.22410460596097</v>
-      </c>
-      <c r="I5">
-        <v>-4684.2304709161399</v>
-      </c>
-      <c r="J5">
-        <v>3394.9581700035701</v>
-      </c>
-      <c r="K5">
-        <v>-1068.5228958858299</v>
-      </c>
-      <c r="L5">
-        <v>637.61337677257302</v>
-      </c>
-      <c r="M5">
-        <v>967.26488475338499</v>
-      </c>
-      <c r="N5">
-        <v>2525.78451387528</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1600</v>
-      </c>
-      <c r="E6">
-        <v>1000</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>484.79323030429703</v>
-      </c>
-      <c r="H6">
-        <v>-1641.6643270090999</v>
-      </c>
-      <c r="I6">
-        <v>-1471.9433556568599</v>
-      </c>
-      <c r="J6">
-        <v>5107.3846315984802</v>
-      </c>
-      <c r="K6">
-        <v>-1564.7117983395201</v>
-      </c>
-      <c r="L6" s="1">
-        <v>-9.9411971710150404E-11</v>
-      </c>
-      <c r="M6">
-        <v>1353.04302313567</v>
-      </c>
-      <c r="N6">
-        <v>3930.2026047035802</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>-1400</v>
-      </c>
-      <c r="D7">
-        <v>1400</v>
-      </c>
-      <c r="E7">
-        <v>1000</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1785.22636135465</v>
-      </c>
-      <c r="H7">
-        <v>-2164.6968487027698</v>
-      </c>
-      <c r="I7">
-        <v>-5645.0370471931301</v>
-      </c>
-      <c r="J7">
-        <v>7167.4970817943604</v>
-      </c>
-      <c r="K7">
-        <v>-1547.3551513375201</v>
-      </c>
-      <c r="L7">
-        <v>371.37822064368203</v>
-      </c>
-      <c r="M7">
-        <v>1592.10820274409</v>
-      </c>
-      <c r="N7">
-        <v>3784.1894868436798</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1600</v>
-      </c>
-      <c r="E8">
-        <v>1000</v>
-      </c>
-      <c r="F8">
-        <v>-200</v>
-      </c>
-      <c r="G8">
-        <v>313.889236459936</v>
-      </c>
-      <c r="H8">
-        <v>-1572.1385262546301</v>
-      </c>
-      <c r="I8">
-        <v>-1637.85233040398</v>
-      </c>
-      <c r="J8">
-        <v>5000.5585212304504</v>
-      </c>
-      <c r="K8">
-        <v>-1564.8430666855099</v>
-      </c>
-      <c r="L8">
-        <v>239.708140368442</v>
-      </c>
-      <c r="M8">
-        <v>1374.2226637475901</v>
-      </c>
-      <c r="N8">
-        <v>3706.3877589865101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9">
-        <v>-1400</v>
-      </c>
-      <c r="D9">
-        <v>1400</v>
-      </c>
-      <c r="E9">
-        <v>1000</v>
-      </c>
-      <c r="F9">
-        <v>-200</v>
-      </c>
-      <c r="G9">
-        <v>1614.32236751029</v>
-      </c>
-      <c r="H9">
-        <v>-2095.1710479482999</v>
-      </c>
-      <c r="I9">
-        <v>-5810.9460219402499</v>
-      </c>
-      <c r="J9">
-        <v>7060.6709714263297</v>
-      </c>
-      <c r="K9">
-        <v>-1547.4864196835099</v>
-      </c>
-      <c r="L9">
-        <v>611.08636101222498</v>
-      </c>
-      <c r="M9">
-        <v>1524.37235655983</v>
-      </c>
-      <c r="N9">
-        <v>3705.7555794148502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>-1500</v>
-      </c>
-      <c r="E10">
-        <v>750</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>-321.438989658271</v>
-      </c>
-      <c r="H10">
-        <v>1088.4948255168999</v>
-      </c>
-      <c r="I10">
-        <v>1790.7769821632801</v>
-      </c>
-      <c r="J10">
-        <v>-3115.9443335985002</v>
-      </c>
-      <c r="K10">
-        <v>-936.473576411267</v>
-      </c>
-      <c r="L10" s="1">
-        <v>7.2585817564863003E-11</v>
-      </c>
-      <c r="M10">
-        <v>897.12635229648697</v>
-      </c>
-      <c r="N10">
-        <v>1846.9696582387601</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11">
-        <v>-1060</v>
-      </c>
-      <c r="D11">
-        <v>-1060</v>
-      </c>
-      <c r="E11">
-        <v>750</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>813.22971418356201</v>
-      </c>
-      <c r="H11">
-        <v>184.35029120792899</v>
-      </c>
-      <c r="I11">
-        <v>-2002.93579833166</v>
-      </c>
-      <c r="J11">
-        <v>-34.534387327915503</v>
-      </c>
-      <c r="K11">
-        <v>-975.259603337351</v>
-      </c>
-      <c r="L11">
-        <v>281.18636705890401</v>
-      </c>
-      <c r="M11">
-        <v>949.95594792080499</v>
-      </c>
-      <c r="N11">
-        <v>2032.4286608733601</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>-1500</v>
-      </c>
-      <c r="E12">
-        <v>750</v>
-      </c>
-      <c r="F12">
-        <v>-200</v>
-      </c>
-      <c r="G12">
-        <v>-492.34298350263202</v>
-      </c>
-      <c r="H12">
-        <v>1158.02062627137</v>
-      </c>
-      <c r="I12">
-        <v>1624.86800741616</v>
-      </c>
-      <c r="J12">
-        <v>-3222.7704439665299</v>
-      </c>
-      <c r="K12">
-        <v>-936.60484475726003</v>
-      </c>
-      <c r="L12">
-        <v>239.70814036861401</v>
-      </c>
-      <c r="M12">
-        <v>892.10641144533497</v>
-      </c>
-      <c r="N12">
-        <v>2026.4894858642101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13">
-        <v>-1060</v>
-      </c>
-      <c r="D13">
-        <v>-1060</v>
-      </c>
-      <c r="E13">
-        <v>750</v>
-      </c>
-      <c r="F13">
-        <v>-200</v>
-      </c>
-      <c r="G13">
-        <v>642.32572033920098</v>
-      </c>
-      <c r="H13">
-        <v>253.876091962397</v>
-      </c>
-      <c r="I13">
-        <v>-2168.8447730787898</v>
-      </c>
-      <c r="J13">
-        <v>-141.360497695943</v>
-      </c>
-      <c r="K13">
-        <v>-975.39087168334299</v>
-      </c>
-      <c r="L13">
-        <v>520.894507427446</v>
-      </c>
-      <c r="M13">
-        <v>838.02831118205597</v>
-      </c>
-      <c r="N13">
-        <v>2290.4371770596199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>750</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>59.135406112003601</v>
-      </c>
-      <c r="H14">
-        <v>-200.25132491294599</v>
-      </c>
-      <c r="I14">
-        <v>182.591149437768</v>
-      </c>
-      <c r="J14">
-        <v>743.212781566697</v>
-      </c>
-      <c r="K14">
-        <v>-1068.1737277131399</v>
-      </c>
-      <c r="L14" s="1">
-        <v>-9.1612915170680105E-12</v>
-      </c>
-      <c r="M14">
-        <v>165.04510306364801</v>
-      </c>
-      <c r="N14">
-        <v>903.80193475732005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15">
-        <v>1500</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>750</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>-1388.5535765519801</v>
-      </c>
-      <c r="H15">
-        <v>544.24725553453595</v>
-      </c>
-      <c r="I15">
-        <v>4883.5037950445603</v>
-      </c>
-      <c r="J15">
-        <v>-2015.3587172381999</v>
-      </c>
-      <c r="K15">
-        <v>-1067.9558278864399</v>
-      </c>
-      <c r="L15">
-        <v>-397.90523640404899</v>
-      </c>
-      <c r="M15">
-        <v>1086.45648918451</v>
-      </c>
-      <c r="N15">
-        <v>3338.5282105842098</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>750</v>
-      </c>
-      <c r="F16">
-        <v>-200</v>
-      </c>
-      <c r="G16">
-        <v>-111.76858773235701</v>
-      </c>
-      <c r="H16">
-        <v>-130.72552415847699</v>
-      </c>
-      <c r="I16">
-        <v>16.682174690643201</v>
-      </c>
-      <c r="J16">
-        <v>636.38667119867</v>
-      </c>
-      <c r="K16">
-        <v>-1068.30499605913</v>
-      </c>
-      <c r="L16">
-        <v>239.70814036853201</v>
-      </c>
-      <c r="M16">
-        <v>223.07866515841101</v>
-      </c>
-      <c r="N16">
-        <v>650.65329920769705</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>1500</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>750</v>
-      </c>
-      <c r="F17">
-        <v>-200</v>
-      </c>
-      <c r="G17">
-        <v>-1559.4575703963401</v>
-      </c>
-      <c r="H17">
-        <v>613.77305628900501</v>
-      </c>
-      <c r="I17">
-        <v>4717.5948202974296</v>
-      </c>
-      <c r="J17">
-        <v>-2122.1848276062301</v>
-      </c>
-      <c r="K17">
-        <v>-1068.08709623243</v>
-      </c>
-      <c r="L17">
-        <v>-158.197096035507</v>
-      </c>
-      <c r="M17">
-        <v>1219.2109256275</v>
-      </c>
-      <c r="N17">
-        <v>3115.4415625655001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>1600</v>
-      </c>
-      <c r="E18">
-        <v>1000</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>484.79323030429703</v>
-      </c>
-      <c r="H18">
-        <v>-1641.6643270090999</v>
-      </c>
-      <c r="I18">
-        <v>-1471.9433556568599</v>
-      </c>
-      <c r="J18">
-        <v>5107.3846315984802</v>
-      </c>
-      <c r="K18">
-        <v>-1564.7117983395201</v>
-      </c>
-      <c r="L18" s="1">
-        <v>-9.9411971710150404E-11</v>
-      </c>
-      <c r="M18">
-        <v>1353.04302313567</v>
-      </c>
-      <c r="N18">
-        <v>3930.2026047035802</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19">
-        <v>1400</v>
-      </c>
-      <c r="D19">
-        <v>1400</v>
-      </c>
-      <c r="E19">
-        <v>1000</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>-917.12640628479505</v>
-      </c>
-      <c r="H19">
-        <v>-774.96616520080795</v>
-      </c>
-      <c r="I19">
-        <v>3129.9998912728802</v>
-      </c>
-      <c r="J19">
-        <v>2018.16361735854</v>
-      </c>
-      <c r="K19">
-        <v>-1546.9484049943501</v>
-      </c>
-      <c r="L19">
-        <v>-371.37822064385898</v>
-      </c>
-      <c r="M19">
-        <v>1556.7488099764</v>
-      </c>
-      <c r="N19">
-        <v>4962.8388446592899</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>1600</v>
-      </c>
-      <c r="E20">
-        <v>1000</v>
-      </c>
-      <c r="F20">
-        <v>-200</v>
-      </c>
-      <c r="G20">
-        <v>313.889236459936</v>
-      </c>
-      <c r="H20">
-        <v>-1572.1385262546301</v>
-      </c>
-      <c r="I20">
-        <v>-1637.85233040398</v>
-      </c>
-      <c r="J20">
-        <v>5000.5585212304504</v>
-      </c>
-      <c r="K20">
-        <v>-1564.8430666855099</v>
-      </c>
-      <c r="L20">
-        <v>239.708140368442</v>
-      </c>
-      <c r="M20">
-        <v>1374.2226637475901</v>
-      </c>
-      <c r="N20">
-        <v>3706.3877589865101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21">
-        <v>1400</v>
-      </c>
-      <c r="D21">
-        <v>1400</v>
-      </c>
-      <c r="E21">
-        <v>1000</v>
-      </c>
-      <c r="F21">
-        <v>-200</v>
-      </c>
-      <c r="G21">
-        <v>-1088.0304001291499</v>
-      </c>
-      <c r="H21">
-        <v>-705.440364446339</v>
-      </c>
-      <c r="I21">
-        <v>2964.0909165257499</v>
-      </c>
-      <c r="J21">
-        <v>1911.3375069905101</v>
-      </c>
-      <c r="K21">
-        <v>-1547.0796733403399</v>
-      </c>
-      <c r="L21">
-        <v>-131.67008027531699</v>
-      </c>
-      <c r="M21">
-        <v>1655.8042477040101</v>
-      </c>
-      <c r="N21">
-        <v>4699.91872820756</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>750</v>
@@ -2120,297 +1223,297 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>-321.438989658271</v>
+        <v>59.135406112003601</v>
       </c>
       <c r="H22">
-        <v>1088.4948255168999</v>
+        <v>-200.25132491294599</v>
       </c>
       <c r="I22">
-        <v>1790.7769821632801</v>
+        <v>182.591149437768</v>
       </c>
       <c r="J22">
-        <v>-3115.9443335985002</v>
+        <v>743.212781566697</v>
       </c>
       <c r="K22">
-        <v>-936.473576411267</v>
+        <v>-1068.1737277131399</v>
       </c>
       <c r="L22" s="1">
-        <v>7.2585817564863003E-11</v>
+        <v>-9.1612915170680105E-12</v>
       </c>
       <c r="M22">
-        <v>897.12635229648697</v>
+        <v>165.04510306364801</v>
       </c>
       <c r="N22">
-        <v>1846.9696582387601</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+        <v>903.80193475732005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C23">
-        <v>1060</v>
+        <v>-237</v>
       </c>
       <c r="D23">
-        <v>-1060</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>750</v>
+        <v>95</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>-1232.8373813148701</v>
+        <v>236.22534403509701</v>
       </c>
       <c r="H23">
-        <v>1236.5749515737</v>
+        <v>-142.99594353300799</v>
       </c>
       <c r="I23">
-        <v>4641.0207407926</v>
+        <v>-719.615985743755</v>
       </c>
       <c r="J23">
-        <v>-3933.3154389721699</v>
+        <v>529.994582476289</v>
       </c>
       <c r="K23">
-        <v>-974.95163824894996</v>
+        <v>-135.33643368294901</v>
       </c>
       <c r="L23">
-        <v>-281.18636705880601</v>
+        <v>62.869027351837197</v>
       </c>
       <c r="M23">
-        <v>971.16660771438796</v>
+        <v>172.01667145421899</v>
       </c>
       <c r="N23">
-        <v>2432.2528265271199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+        <v>386.12406654641597</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>-1500</v>
+        <v>3909</v>
       </c>
       <c r="E24">
-        <v>750</v>
+        <v>1563</v>
       </c>
       <c r="F24">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>-492.34298350263202</v>
+        <v>1115.0150617147499</v>
       </c>
       <c r="H24">
-        <v>1158.02062627137</v>
+        <v>-3775.7962291387798</v>
       </c>
       <c r="I24">
-        <v>1624.86800741616</v>
+        <v>-3810.41232465438</v>
       </c>
       <c r="J24">
-        <v>-3222.7704439665299</v>
+        <v>11605.8188789055</v>
       </c>
       <c r="K24">
-        <v>-936.60484475726003</v>
-      </c>
-      <c r="L24">
-        <v>239.70814036861401</v>
+        <v>-2569.2846428468702</v>
+      </c>
+      <c r="L24" s="1">
+        <v>-2.32125097789082E-10</v>
       </c>
       <c r="M24">
-        <v>892.10641144533497</v>
+        <v>3111.9728074531499</v>
       </c>
       <c r="N24">
-        <v>2026.4894858642101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+        <v>8595.7298090256809</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C25">
-        <v>1060</v>
+        <v>-3774</v>
       </c>
       <c r="D25">
-        <v>-1060</v>
+        <v>3774</v>
       </c>
       <c r="E25">
-        <v>750</v>
+        <v>1774</v>
       </c>
       <c r="F25">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>-1403.7413751592301</v>
+        <v>4739.7856073975299</v>
       </c>
       <c r="H25">
-        <v>1306.1007523281701</v>
+        <v>-5589.3048767481296</v>
       </c>
       <c r="I25">
-        <v>4475.1117660454702</v>
+        <v>-15441.8028393472</v>
       </c>
       <c r="J25">
-        <v>-4040.1415493402001</v>
+        <v>18408.151158747802</v>
       </c>
       <c r="K25">
-        <v>-975.08290659494196</v>
+        <v>-2858.4927405902999</v>
       </c>
       <c r="L25">
-        <v>-41.478226690264698</v>
+        <v>1001.12957479233</v>
       </c>
       <c r="M25">
-        <v>1069.4902033849401</v>
+        <v>4136.5921311761203</v>
       </c>
       <c r="N25">
-        <v>2356.3613396361002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <v>9649.8735794131499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>4493</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>4001</v>
       </c>
       <c r="E26">
-        <v>1800</v>
+        <v>1780</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>141.92497466880801</v>
+        <v>-3180.8442639158002</v>
       </c>
       <c r="H26">
-        <v>-480.603179791071</v>
+        <v>-1682.75729507292</v>
       </c>
       <c r="I26">
-        <v>438.21875865064402</v>
+        <v>10224.5823279833</v>
       </c>
       <c r="J26">
-        <v>1783.71067576007</v>
+        <v>3794.7089173486602</v>
       </c>
       <c r="K26">
-        <v>-2563.6169465115399</v>
-      </c>
-      <c r="L26" s="1">
-        <v>-2.1987099640963201E-11</v>
+        <v>-2885.7678347308201</v>
+      </c>
+      <c r="L26">
+        <v>-1191.85881810914</v>
       </c>
       <c r="M26">
-        <v>396.10824735275497</v>
+        <v>4510.3399355077299</v>
       </c>
       <c r="N26">
-        <v>2169.12464341757</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+        <v>13602.616565549301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C27">
-        <v>-1500</v>
+        <v>-3774</v>
       </c>
       <c r="D27">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>750</v>
+        <v>95</v>
       </c>
       <c r="F27">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>-1559.4575703963401</v>
+        <v>-3180.8442639158002</v>
       </c>
       <c r="H27">
-        <v>-2164.6968487027698</v>
+        <v>-5589.3048767481296</v>
       </c>
       <c r="I27">
-        <v>-5810.9460219402499</v>
+        <v>-15441.8028393472</v>
       </c>
       <c r="J27">
-        <v>-4040.1415493402001</v>
+        <v>529.994582476289</v>
       </c>
       <c r="K27">
-        <v>-2563.6169465115399</v>
+        <v>-2885.7678347308201</v>
       </c>
       <c r="L27">
-        <v>-397.90523640404899</v>
+        <v>-1191.85881810914</v>
       </c>
       <c r="M27">
         <v>165.04510306364801</v>
       </c>
       <c r="N27">
-        <v>650.65329920769705</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+        <v>386.12406654641597</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C28">
-        <v>1500</v>
+        <v>4493</v>
       </c>
       <c r="D28">
-        <v>1600</v>
+        <v>4001</v>
       </c>
       <c r="E28">
-        <v>1800</v>
+        <v>1780</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1785.22636135465</v>
+        <v>4739.7856073975299</v>
       </c>
       <c r="H28">
-        <v>1306.1007523281701</v>
+        <v>-142.99594353300799</v>
       </c>
       <c r="I28">
-        <v>4883.5037950445603</v>
+        <v>10224.5823279833</v>
       </c>
       <c r="J28">
-        <v>7167.4970817943604</v>
+        <v>18408.151158747802</v>
       </c>
       <c r="K28">
-        <v>-936.473576411267</v>
+        <v>-135.33643368294901</v>
       </c>
       <c r="L28">
-        <v>637.61337677257302</v>
+        <v>1001.12957479233</v>
       </c>
       <c r="M28">
-        <v>1655.8042477040101</v>
+        <v>4510.3399355077299</v>
       </c>
       <c r="N28">
-        <v>4962.8388446592899</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>13602.616565549301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G29" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
@@ -2419,43 +1522,44 @@
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O29" s="14"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C30" s="3">
         <v>210000000000</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C31" s="3">
         <v>240000000</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F32" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F32" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G32" s="4">
         <v>427</v>
@@ -2476,12 +1580,12 @@
         <v>394</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F33" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G33" s="12">
         <v>0.5</v>
@@ -2502,12 +1606,12 @@
         <v>0.5</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F34" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G34" s="5">
         <f>G33*25.4</f>
@@ -2534,18 +1638,18 @@
         <v>12.7</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C35" s="4">
         <v>2</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G35" s="5">
         <f>G34/2000</f>
@@ -2574,203 +1678,203 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C36" s="4">
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G36" s="6">
         <f t="shared" ref="G36:L36" si="2">-G27*(G32/1000)^2/(PI()^2*$C30/$C35)</f>
-        <v>2.743723029846406E-10</v>
+        <v>5.5964046902812106E-10</v>
       </c>
       <c r="H36" s="6">
         <f t="shared" si="2"/>
-        <v>9.3881444304329993E-11</v>
+        <v>2.4240438784802773E-10</v>
       </c>
       <c r="I36" s="6">
         <f t="shared" si="2"/>
-        <v>1.4699336053548215E-9</v>
+        <v>3.9061496759938994E-9</v>
       </c>
       <c r="J36" s="6">
         <f t="shared" si="2"/>
-        <v>4.5067697522301772E-10</v>
+        <v>-5.9120788813453332E-11</v>
       </c>
       <c r="K36" s="6">
         <f t="shared" si="2"/>
-        <v>3.3137997443949822E-10</v>
+        <v>3.7302205878015349E-10</v>
       </c>
       <c r="L36" s="6">
         <f t="shared" si="2"/>
-        <v>5.9605049593430015E-11</v>
+        <v>1.7853699188221908E-10</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C37" s="4">
         <v>2</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G37" s="8">
         <f>IF(G36&gt;0,(G35-((-G36+PI() * (G35)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
-        <v>0.37262494213785841</v>
+        <v>0.85257862693400432</v>
       </c>
       <c r="H37" s="8">
         <f t="shared" ref="H37:L37" si="3">IF(H36&gt;0,(H35-((-H36+PI() * (H35)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
-        <v>0.12007316742527682</v>
+        <v>0.32553756318933269</v>
       </c>
       <c r="I37" s="8">
         <f t="shared" si="3"/>
-        <v>0.59489034343020863</v>
-      </c>
-      <c r="J37" s="8">
+        <v>1.9701311076293455</v>
+      </c>
+      <c r="J37" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>0.17052994627606877</v>
+        <v>Tension only</v>
       </c>
       <c r="K37" s="8">
         <f t="shared" si="3"/>
-        <v>0.45946649660331873</v>
+        <v>0.52541713283139457</v>
       </c>
       <c r="L37" s="8">
         <f t="shared" si="3"/>
-        <v>7.5432435583476676E-2</v>
+        <v>0.23463882681833051</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="E38" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G38" s="6">
         <f t="shared" ref="G38:L38" si="4">G28/$C31*$C36</f>
-        <v>1.4876886344622083E-5</v>
+        <v>3.9498213394979415E-5</v>
       </c>
       <c r="H38" s="6">
         <f t="shared" si="4"/>
-        <v>1.0884172936068084E-5</v>
+        <v>-1.1916328627750666E-6</v>
       </c>
       <c r="I38" s="6">
         <f t="shared" si="4"/>
-        <v>4.0695864958704673E-5</v>
+        <v>8.5204852733194176E-5</v>
       </c>
       <c r="J38" s="6">
         <f t="shared" si="4"/>
-        <v>5.972914234828634E-5</v>
+        <v>1.5340125965623169E-4</v>
       </c>
       <c r="K38" s="6">
         <f t="shared" si="4"/>
-        <v>-7.8039464700938912E-6</v>
+        <v>-1.127803614024575E-6</v>
       </c>
       <c r="L38" s="6">
         <f t="shared" si="4"/>
-        <v>5.3134448064381082E-6</v>
+        <v>8.3427464566027492E-6</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F39" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G39" s="8">
         <f>(G35-(G35^2-G38/PI())^0.5)*1000</f>
-        <v>0.3845125931845137</v>
+        <v>1.0821894311031808</v>
       </c>
       <c r="H39" s="8">
         <f t="shared" ref="H39:L39" si="5">(H35-(H35^2-H38/PI())^0.5)*1000</f>
-        <v>0.27892430029772403</v>
+        <v>-2.979690279579332E-2</v>
       </c>
       <c r="I39" s="8">
         <f t="shared" si="5"/>
-        <v>0.70617191136805246</v>
+        <v>1.5497835123935155</v>
       </c>
       <c r="J39" s="8">
         <f t="shared" si="5"/>
-        <v>1.0566324774333551</v>
+        <v>3.0522503911880876</v>
       </c>
       <c r="K39" s="8">
         <f t="shared" si="5"/>
-        <v>-0.19267325431126647</v>
+        <v>-2.8204374274772188E-2</v>
       </c>
       <c r="L39" s="8">
         <f t="shared" si="5"/>
-        <v>0.13460154226466009</v>
+        <v>0.21266170681959531</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="E40" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G40" s="9">
         <f t="shared" ref="G40:L40" si="6">MAX(G39,G37)</f>
-        <v>0.3845125931845137</v>
+        <v>1.0821894311031808</v>
       </c>
       <c r="H40" s="9">
         <f t="shared" si="6"/>
-        <v>0.27892430029772403</v>
+        <v>0.32553756318933269</v>
       </c>
       <c r="I40" s="9">
         <f t="shared" si="6"/>
-        <v>0.70617191136805246</v>
+        <v>1.9701311076293455</v>
       </c>
       <c r="J40" s="9">
         <f t="shared" si="6"/>
-        <v>1.0566324774333551</v>
+        <v>3.0522503911880876</v>
       </c>
       <c r="K40" s="9">
         <f t="shared" si="6"/>
-        <v>0.45946649660331873</v>
+        <v>0.52541713283139457</v>
       </c>
       <c r="L40" s="9">
         <f t="shared" si="6"/>
-        <v>0.13460154226466009</v>
+        <v>0.23463882681833051</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="E41" s="10"/>
       <c r="F41" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G41" s="11">
         <f>G40/25.4</f>
-        <v>1.5138291070256446E-2</v>
+        <v>4.2605883114298457E-2</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" ref="H41:L41" si="7">H40/25.4</f>
-        <v>1.0981271665264726E-2</v>
+        <v>1.281643949564302E-2</v>
       </c>
       <c r="I41" s="11">
         <f t="shared" si="7"/>
-        <v>2.7802043754647735E-2</v>
+        <v>7.7564216835801003E-2</v>
       </c>
       <c r="J41" s="11">
         <f t="shared" si="7"/>
-        <v>4.1599703835958866E-2</v>
+        <v>0.12016733823575149</v>
       </c>
       <c r="K41" s="11">
         <f t="shared" si="7"/>
-        <v>1.8089232149736959E-2</v>
+        <v>2.0685713890999786E-2</v>
       </c>
       <c r="L41" s="11">
         <f t="shared" si="7"/>
-        <v>5.2992733175063027E-3</v>
+        <v>9.2377490873358468E-3</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="G43" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
@@ -2779,84 +1883,85 @@
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
+      <c r="O43" s="14"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="G44" s="7">
         <f>MAX(ABS(G27),ABS(G28))*$C37</f>
-        <v>3570.4527227092999</v>
+        <v>9479.5712147950599</v>
       </c>
       <c r="H44" s="7">
         <f>MAX(ABS(H27),ABS(H28))*$C37</f>
-        <v>4329.3936974055396</v>
+        <v>11178.609753496259</v>
       </c>
       <c r="I44" s="7">
         <f>MAX(ABS(I27),ABS(I28))*$C37</f>
-        <v>11621.8920438805</v>
+        <v>30883.605678694399</v>
       </c>
       <c r="J44" s="7">
         <f>MAX(ABS(J27),ABS(J28))*$C37</f>
-        <v>14334.994163588721</v>
+        <v>36816.302317495603</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" ref="K44:L44" si="8">MAX(ABS(K27),ABS(K28))*$C37</f>
-        <v>5127.2338930230799</v>
+        <v>5771.5356694616403</v>
       </c>
       <c r="L44" s="7">
         <f t="shared" si="8"/>
-        <v>1275.226753545146</v>
+        <v>2383.7176362182799</v>
       </c>
       <c r="M44" s="7">
         <f>MAX(ABS(M27),ABS(M28))*$C37</f>
-        <v>3311.6084954080202</v>
+        <v>9020.6798710154599</v>
       </c>
       <c r="N44" s="7">
         <f>MAX(ABS(N27),ABS(N28))*$C37</f>
-        <v>9925.6776893185797</v>
+        <v>27205.233131098601</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="H45" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="L45" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="P45" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F46" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G46" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L46" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="P46" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="I47" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="J47" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="O47" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="P47" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/RearVD.xlsx
+++ b/RearVD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\timot\Documents\Projects\Git\Wishbone-Forces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AF8C09-59E3-4F3F-8F23-AAB4DA10F2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646F1481-BC88-4AD0-A5AD-111086F71F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OutputForces" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Scenario</t>
   </si>
@@ -74,18 +74,6 @@
     <t>LBJ - spherical</t>
   </si>
   <si>
-    <t>Self weight</t>
-  </si>
-  <si>
-    <t>Brake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corner Outside </t>
-  </si>
-  <si>
-    <t>Corner Outside Brake</t>
-  </si>
-  <si>
     <t>Max compression</t>
   </si>
   <si>
@@ -170,37 +158,46 @@
     <t>Critical Thickness/in</t>
   </si>
   <si>
-    <t>1/2" 20SWG</t>
-  </si>
-  <si>
-    <t>.036"</t>
-  </si>
-  <si>
-    <t>Thickness</t>
-  </si>
-  <si>
-    <t>.064"</t>
-  </si>
-  <si>
-    <t>3/8" 16SWG</t>
-  </si>
-  <si>
-    <t>20SWG</t>
-  </si>
-  <si>
-    <t>16SWG</t>
-  </si>
-  <si>
     <t>Outer diameter/in</t>
   </si>
   <si>
-    <t>3/4" 16SWG</t>
-  </si>
-  <si>
-    <t>lighter than 3/8"</t>
-  </si>
-  <si>
-    <t>Corner + Accelerate</t>
+    <t>Self weight + down force</t>
+  </si>
+  <si>
+    <t>Corner Inner</t>
+  </si>
+  <si>
+    <t>Corner Outer</t>
+  </si>
+  <si>
+    <t>Braking</t>
+  </si>
+  <si>
+    <t>Brake + Corner Inner</t>
+  </si>
+  <si>
+    <t>Brake + Corner Outer</t>
+  </si>
+  <si>
+    <t>SWG</t>
+  </si>
+  <si>
+    <t>Inches</t>
+  </si>
+  <si>
+    <t>SWG smaller than this</t>
+  </si>
+  <si>
+    <t>Density / kgm^-3</t>
+  </si>
+  <si>
+    <t>Thickness/in</t>
+  </si>
+  <si>
+    <t>SWG chosen</t>
+  </si>
+  <si>
+    <t>Mass/g</t>
   </si>
 </sst>
 </file>
@@ -210,7 +207,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,8 +342,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,6 +550,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E7E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,7 +732,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -728,7 +749,29 @@
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -785,55 +828,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>692372</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>83819</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>334319</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>4700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{622A2A90-F46E-FBE9-EE61-F62FA26D92FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15254192" y="5387339"/>
-          <a:ext cx="2827107" cy="2664081"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1133,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A10:P47"/>
+  <dimension ref="A10:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1159,361 +1153,405 @@
     <row r="14" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L14" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L18" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0</v>
+      </c>
       <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21">
         <v>0</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1400</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>110.386091409073</v>
+      </c>
+      <c r="H21">
+        <v>-373.80247317083303</v>
+      </c>
+      <c r="I21">
+        <v>340.83681228383398</v>
+      </c>
+      <c r="J21">
+        <v>1387.33052559116</v>
+      </c>
+      <c r="K21">
+        <v>-1993.9242917311899</v>
+      </c>
+      <c r="L21" s="1">
+        <v>-1.7101077498526901E-11</v>
+      </c>
+      <c r="M21">
+        <v>308.084192385476</v>
+      </c>
+      <c r="N21">
+        <v>1687.0969448803301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" t="s">
-        <v>10</v>
-      </c>
-      <c r="M21" t="s">
-        <v>11</v>
-      </c>
-      <c r="N21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>0</v>
-      </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-649</v>
       </c>
       <c r="E22">
-        <v>750</v>
+        <v>405</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>59.135406112003601</v>
+        <v>-132.728735936123</v>
       </c>
       <c r="H22">
-        <v>-200.25132491294599</v>
+        <v>449.46178563299202</v>
       </c>
       <c r="I22">
-        <v>182.591149437768</v>
+        <v>794.40762432230201</v>
       </c>
       <c r="J22">
-        <v>743.212781566697</v>
+        <v>-1268.39374311546</v>
       </c>
       <c r="K22">
-        <v>-1068.1737277131399</v>
+        <v>-519.83154750181905</v>
       </c>
       <c r="L22" s="1">
-        <v>-9.1612915170680105E-12</v>
+        <v>3.0422151776898698E-11</v>
       </c>
       <c r="M22">
-        <v>165.04510306364801</v>
+        <v>370.44182736478098</v>
       </c>
       <c r="N22">
-        <v>903.80193475732005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+        <v>723.57562337367403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C23">
-        <v>-237</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-3832</v>
       </c>
       <c r="E23">
-        <v>95</v>
+        <v>2395</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>236.22534403509701</v>
+        <v>-783.40165954346298</v>
       </c>
       <c r="H23">
-        <v>-142.99594353300799</v>
+        <v>2652.8476014094499</v>
       </c>
       <c r="I23">
-        <v>-719.615985743755</v>
+        <v>4691.4531445407201</v>
       </c>
       <c r="J23">
-        <v>529.994582476289</v>
+        <v>-7485.5338944057203</v>
       </c>
       <c r="K23">
-        <v>-135.33643368294901</v>
-      </c>
-      <c r="L23">
-        <v>62.869027351837197</v>
+        <v>-3074.5847839714402</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1.7958155709013601E-10</v>
       </c>
       <c r="M23">
-        <v>172.01667145421899</v>
+        <v>2186.4499821767699</v>
       </c>
       <c r="N23">
-        <v>386.12406654641597</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4268.9845108996196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C24">
+        <v>1002</v>
+      </c>
+      <c r="D24">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>3909</v>
-      </c>
       <c r="E24">
-        <v>1563</v>
+        <v>626</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1115.0150617147499</v>
+        <v>-917.69788811805904</v>
       </c>
       <c r="H24">
-        <v>-3775.7962291387798</v>
+        <v>330.18194587824598</v>
       </c>
       <c r="I24">
-        <v>-3810.41232465438</v>
+        <v>3292.6123933293902</v>
       </c>
       <c r="J24">
-        <v>11605.8188789055</v>
+        <v>-1222.39082618733</v>
       </c>
       <c r="K24">
-        <v>-2569.2846428468702</v>
-      </c>
-      <c r="L24" s="1">
-        <v>-2.32125097789082E-10</v>
+        <v>-891.42344764700101</v>
+      </c>
+      <c r="L24">
+        <v>-265.80069791790601</v>
       </c>
       <c r="M24">
-        <v>3111.9728074531499</v>
+        <v>729.81823763093496</v>
       </c>
       <c r="N24">
-        <v>8595.7298090256809</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <v>2340.88517176902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C25">
-        <v>-3774</v>
+        <v>473</v>
       </c>
       <c r="D25">
-        <v>3774</v>
+        <v>-473</v>
       </c>
       <c r="E25">
-        <v>1774</v>
+        <v>418</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>4739.7856073975299</v>
+        <v>-543.55425232651396</v>
       </c>
       <c r="H25">
-        <v>-5589.3048767481296</v>
+        <v>529.543100051838</v>
       </c>
       <c r="I25">
-        <v>-15441.8028393472</v>
+        <v>2091.2331874541001</v>
       </c>
       <c r="J25">
-        <v>18408.151158747802</v>
+        <v>-1672.57316601206</v>
       </c>
       <c r="K25">
-        <v>-2858.4927405902999</v>
+        <v>-553.73066545624704</v>
       </c>
       <c r="L25">
-        <v>1001.12957479233</v>
+        <v>-125.47278454605301</v>
       </c>
       <c r="M25">
-        <v>4136.5921311761203</v>
+        <v>422.219967041264</v>
       </c>
       <c r="N25">
-        <v>9649.8735794131499</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1101.2896315175301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C26">
-        <v>4493</v>
+        <v>1435</v>
       </c>
       <c r="D26">
-        <v>4001</v>
+        <v>-1435</v>
       </c>
       <c r="E26">
-        <v>1780</v>
+        <v>1268</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>-3180.8442639158002</v>
+        <v>-1649.06037210208</v>
       </c>
       <c r="H26">
-        <v>-1682.75729507292</v>
+        <v>1606.5792192198301</v>
       </c>
       <c r="I26">
-        <v>10224.5823279833</v>
+        <v>6344.4049809206899</v>
       </c>
       <c r="J26">
-        <v>3794.7089173486602</v>
+        <v>-5074.4352979959704</v>
       </c>
       <c r="K26">
-        <v>-2885.7678347308201</v>
+        <v>-1679.7241134073499</v>
       </c>
       <c r="L26">
-        <v>-1191.85881810914</v>
+        <v>-380.662676159802</v>
       </c>
       <c r="M26">
-        <v>4510.3399355077299</v>
+        <v>1280.9604169399599</v>
       </c>
       <c r="N26">
-        <v>13602.616565549301</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3341.08763721481</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>-3774</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>-3832</v>
       </c>
       <c r="E27">
-        <v>95</v>
+        <v>405</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>-3180.8442639158002</v>
+        <v>-1649.06037210208</v>
       </c>
       <c r="H27">
-        <v>-5589.3048767481296</v>
+        <v>-373.80247317083303</v>
       </c>
       <c r="I27">
-        <v>-15441.8028393472</v>
+        <v>340.83681228383398</v>
       </c>
       <c r="J27">
-        <v>529.994582476289</v>
+        <v>-7485.5338944057203</v>
       </c>
       <c r="K27">
-        <v>-2885.7678347308201</v>
+        <v>-3074.5847839714402</v>
       </c>
       <c r="L27">
-        <v>-1191.85881810914</v>
+        <v>-380.662676159802</v>
       </c>
       <c r="M27">
-        <v>165.04510306364801</v>
+        <v>308.084192385476</v>
       </c>
       <c r="N27">
-        <v>386.12406654641597</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+        <v>723.57562337367403</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>4493</v>
+        <v>1435</v>
       </c>
       <c r="D28">
-        <v>4001</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>1780</v>
+        <v>2395</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>4739.7856073975299</v>
+        <v>110.386091409073</v>
       </c>
       <c r="H28">
-        <v>-142.99594353300799</v>
+        <v>2652.8476014094499</v>
       </c>
       <c r="I28">
-        <v>10224.5823279833</v>
+        <v>6344.4049809206899</v>
       </c>
       <c r="J28">
-        <v>18408.151158747802</v>
+        <v>1387.33052559116</v>
       </c>
       <c r="K28">
-        <v>-135.33643368294901</v>
-      </c>
-      <c r="L28">
-        <v>1001.12957479233</v>
+        <v>-519.83154750181905</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1.7958155709013601E-10</v>
       </c>
       <c r="M28">
-        <v>4510.3399355077299</v>
+        <v>2186.4499821767699</v>
       </c>
       <c r="N28">
-        <v>13602.616565549301</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4268.9845108996196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="G29" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
@@ -1522,44 +1560,70 @@
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
-      <c r="O29" s="14"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P29" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>48</v>
+      </c>
+      <c r="T29" s="20"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C30" s="3">
         <v>210000000000</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30" s="17">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="Q30" s="14">
+        <v>0</v>
+      </c>
+      <c r="T30" s="21"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C31" s="3">
         <v>240000000</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="P31" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>1</v>
+      </c>
+      <c r="T31" s="21"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="4">
+        <v>7850</v>
+      </c>
       <c r="F32" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G32" s="4">
         <v>427</v>
@@ -1580,12 +1644,19 @@
         <v>394</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="P32" s="17">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="Q32" s="14">
+        <v>2</v>
+      </c>
+      <c r="T32" s="21"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
       <c r="F33" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G33" s="12">
         <v>0.5</v>
@@ -1606,12 +1677,19 @@
         <v>0.5</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="P33" s="18">
+        <v>0.252</v>
+      </c>
+      <c r="Q33" s="15">
+        <v>3</v>
+      </c>
+      <c r="T33" s="21"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
       <c r="F34" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G34" s="5">
         <f>G33*25.4</f>
@@ -1638,18 +1716,25 @@
         <v>12.7</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="P34" s="17">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="Q34" s="14">
+        <v>4</v>
+      </c>
+      <c r="T34" s="21"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C35" s="4">
         <v>2</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G35" s="5">
         <f>G34/2000</f>
@@ -1675,206 +1760,264 @@
         <f t="shared" si="1"/>
         <v>6.3499999999999997E-3</v>
       </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P35" s="18">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>5</v>
+      </c>
+      <c r="T35" s="21"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C36" s="4">
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G36" s="6">
         <f t="shared" ref="G36:L36" si="2">-G27*(G32/1000)^2/(PI()^2*$C30/$C35)</f>
-        <v>5.5964046902812106E-10</v>
+        <v>2.9013709679793535E-10</v>
       </c>
       <c r="H36" s="6">
         <f t="shared" si="2"/>
-        <v>2.4240438784802773E-10</v>
+        <v>1.6211561488084807E-11</v>
       </c>
       <c r="I36" s="6">
         <f t="shared" si="2"/>
-        <v>3.9061496759938994E-9</v>
+        <v>-8.6217886455385851E-11</v>
       </c>
       <c r="J36" s="6">
         <f t="shared" si="2"/>
-        <v>-5.9120788813453332E-11</v>
+        <v>8.3500979662732008E-10</v>
       </c>
       <c r="K36" s="6">
         <f t="shared" si="2"/>
-        <v>3.7302205878015349E-10</v>
+        <v>3.9742904200681829E-10</v>
       </c>
       <c r="L36" s="6">
         <f t="shared" si="2"/>
-        <v>1.7853699188221908E-10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+        <v>5.7022164111037329E-11</v>
+      </c>
+      <c r="P36" s="17">
+        <v>0.192</v>
+      </c>
+      <c r="Q36" s="14">
+        <v>6</v>
+      </c>
+      <c r="T36" s="21"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C37" s="4">
         <v>2</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G37" s="8">
         <f>IF(G36&gt;0,(G35-((-G36+PI() * (G35)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
-        <v>0.85257862693400432</v>
+        <v>0.39626147457325156</v>
       </c>
       <c r="H37" s="8">
         <f t="shared" ref="H37:L37" si="3">IF(H36&gt;0,(H35-((-H36+PI() * (H35)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
-        <v>0.32553756318933269</v>
-      </c>
-      <c r="I37" s="8">
-        <f t="shared" si="3"/>
-        <v>1.9701311076293455</v>
-      </c>
-      <c r="J37" s="8" t="str">
+        <v>2.0250316452383697E-2</v>
+      </c>
+      <c r="I37" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Tension only</v>
       </c>
+      <c r="J37" s="8">
+        <f t="shared" si="3"/>
+        <v>0.32370259865591339</v>
+      </c>
       <c r="K37" s="8">
         <f t="shared" si="3"/>
-        <v>0.52541713283139457</v>
+        <v>0.56513763513831727</v>
       </c>
       <c r="L37" s="8">
         <f t="shared" si="3"/>
-        <v>0.23463882681833051</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+        <v>7.2106922734982773E-2</v>
+      </c>
+      <c r="P37" s="18">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>7</v>
+      </c>
+      <c r="T37" s="21"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E38" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G38" s="6">
         <f t="shared" ref="G38:L38" si="4">G28/$C31*$C36</f>
-        <v>3.9498213394979415E-5</v>
+        <v>9.1988409507560837E-7</v>
       </c>
       <c r="H38" s="6">
         <f t="shared" si="4"/>
-        <v>-1.1916328627750666E-6</v>
+        <v>2.2107063345078749E-5</v>
       </c>
       <c r="I38" s="6">
         <f t="shared" si="4"/>
-        <v>8.5204852733194176E-5</v>
+        <v>5.2870041507672415E-5</v>
       </c>
       <c r="J38" s="6">
         <f t="shared" si="4"/>
-        <v>1.5340125965623169E-4</v>
+        <v>1.1561087713259666E-5</v>
       </c>
       <c r="K38" s="6">
         <f t="shared" si="4"/>
-        <v>-1.127803614024575E-6</v>
+        <v>-4.3319295625151589E-6</v>
       </c>
       <c r="L38" s="6">
         <f t="shared" si="4"/>
-        <v>8.3427464566027492E-6</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+        <v>1.4965129757511335E-18</v>
+      </c>
+      <c r="P38" s="17">
+        <v>0.16</v>
+      </c>
+      <c r="Q38" s="14">
+        <v>8</v>
+      </c>
+      <c r="T38" s="21"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
       <c r="F39" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G39" s="8">
         <f>(G35-(G35^2-G38/PI())^0.5)*1000</f>
-        <v>1.0821894311031808</v>
+        <v>2.3097772338013557E-2</v>
       </c>
       <c r="H39" s="8">
         <f t="shared" ref="H39:L39" si="5">(H35-(H35^2-H38/PI())^0.5)*1000</f>
-        <v>-2.979690279579332E-2</v>
+        <v>0.58063234116856322</v>
       </c>
       <c r="I39" s="8">
         <f t="shared" si="5"/>
-        <v>1.5497835123935155</v>
+        <v>0.92868869193533066</v>
       </c>
       <c r="J39" s="8">
         <f t="shared" si="5"/>
-        <v>3.0522503911880876</v>
+        <v>0.1951759670489224</v>
       </c>
       <c r="K39" s="8">
         <f t="shared" si="5"/>
-        <v>-2.8204374274772188E-2</v>
+        <v>-0.10766180641262786</v>
       </c>
       <c r="L39" s="8">
         <f t="shared" si="5"/>
-        <v>0.21266170681959531</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+        <v>3.7296554733501353E-14</v>
+      </c>
+      <c r="P39" s="18">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="Q39" s="15">
+        <v>9</v>
+      </c>
+      <c r="T39" s="21"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E40" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G40" s="9">
         <f t="shared" ref="G40:L40" si="6">MAX(G39,G37)</f>
-        <v>1.0821894311031808</v>
+        <v>0.39626147457325156</v>
       </c>
       <c r="H40" s="9">
         <f t="shared" si="6"/>
-        <v>0.32553756318933269</v>
+        <v>0.58063234116856322</v>
       </c>
       <c r="I40" s="9">
         <f t="shared" si="6"/>
-        <v>1.9701311076293455</v>
+        <v>0.92868869193533066</v>
       </c>
       <c r="J40" s="9">
         <f t="shared" si="6"/>
-        <v>3.0522503911880876</v>
+        <v>0.32370259865591339</v>
       </c>
       <c r="K40" s="9">
         <f t="shared" si="6"/>
-        <v>0.52541713283139457</v>
+        <v>0.56513763513831727</v>
       </c>
       <c r="L40" s="9">
         <f t="shared" si="6"/>
-        <v>0.23463882681833051</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+        <v>7.2106922734982773E-2</v>
+      </c>
+      <c r="P40" s="17">
+        <v>0.128</v>
+      </c>
+      <c r="Q40" s="14">
+        <v>10</v>
+      </c>
+      <c r="T40" s="21"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E41" s="10"/>
       <c r="F41" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G41" s="11">
         <f>G40/25.4</f>
-        <v>4.2605883114298457E-2</v>
+        <v>1.5600845455639827E-2</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" ref="H41:L41" si="7">H40/25.4</f>
-        <v>1.281643949564302E-2</v>
+        <v>2.2859540990888317E-2</v>
       </c>
       <c r="I41" s="11">
         <f t="shared" si="7"/>
-        <v>7.7564216835801003E-2</v>
+        <v>3.6562546926587822E-2</v>
       </c>
       <c r="J41" s="11">
         <f t="shared" si="7"/>
-        <v>0.12016733823575149</v>
+        <v>1.2744196797476905E-2</v>
       </c>
       <c r="K41" s="11">
         <f t="shared" si="7"/>
-        <v>2.0685713890999786E-2</v>
+        <v>2.2249513194421942E-2</v>
       </c>
       <c r="L41" s="11">
         <f t="shared" si="7"/>
-        <v>9.2377490873358468E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+        <v>2.8388552257867235E-3</v>
+      </c>
+      <c r="P41" s="18">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="Q41" s="15">
+        <v>11</v>
+      </c>
+      <c r="T41" s="21"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P42" s="17">
+        <v>0.104</v>
+      </c>
+      <c r="Q42" s="14">
+        <v>12</v>
+      </c>
+      <c r="T42" s="21"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
       <c r="G43" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
@@ -1883,86 +2026,255 @@
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
-      <c r="O43" s="14"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P43" s="18">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="Q43" s="15">
+        <v>13</v>
+      </c>
+      <c r="T43" s="21"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
       <c r="G44" s="7">
         <f>MAX(ABS(G27),ABS(G28))*$C37</f>
-        <v>9479.5712147950599</v>
+        <v>3298.12074420416</v>
       </c>
       <c r="H44" s="7">
         <f>MAX(ABS(H27),ABS(H28))*$C37</f>
-        <v>11178.609753496259</v>
+        <v>5305.6952028188998</v>
       </c>
       <c r="I44" s="7">
         <f>MAX(ABS(I27),ABS(I28))*$C37</f>
-        <v>30883.605678694399</v>
+        <v>12688.80996184138</v>
       </c>
       <c r="J44" s="7">
         <f>MAX(ABS(J27),ABS(J28))*$C37</f>
-        <v>36816.302317495603</v>
+        <v>14971.067788811441</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" ref="K44:L44" si="8">MAX(ABS(K27),ABS(K28))*$C37</f>
-        <v>5771.5356694616403</v>
+        <v>6149.1695679428803</v>
       </c>
       <c r="L44" s="7">
         <f t="shared" si="8"/>
-        <v>2383.7176362182799</v>
+        <v>761.32535231960401</v>
       </c>
       <c r="M44" s="7">
         <f>MAX(ABS(M27),ABS(M28))*$C37</f>
-        <v>9020.6798710154599</v>
+        <v>4372.8999643535399</v>
       </c>
       <c r="N44" s="7">
         <f>MAX(ABS(N27),ABS(N28))*$C37</f>
-        <v>27205.233131098601</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="H45" t="s">
-        <v>49</v>
-      </c>
-      <c r="L45" t="s">
-        <v>49</v>
-      </c>
-      <c r="P45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="F46" t="s">
+        <v>8537.9690217992393</v>
+      </c>
+      <c r="P44" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="Q44" s="14">
+        <v>14</v>
+      </c>
+      <c r="T44" s="21"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P45" s="18">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>15</v>
+      </c>
+      <c r="T45" s="21"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P46" s="17">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="Q46" s="14">
+        <v>16</v>
+      </c>
+      <c r="T46" s="21"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="F47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" s="7">
+        <f>_xlfn.XLOOKUP(G41,$P$30:$P$55,$Q$30:$Q$55,"Not Found",1,1)</f>
+        <v>25</v>
+      </c>
+      <c r="H47" s="7">
+        <f>_xlfn.XLOOKUP(H41,$P$30:$P$55,$Q$30:$Q$55,"Not Found",1,1)</f>
+        <v>23</v>
+      </c>
+      <c r="I47" s="7">
+        <f>_xlfn.XLOOKUP(I41,$P$30:$P$55,$Q$30:$Q$55,"Not Found",1,1)</f>
+        <v>19</v>
+      </c>
+      <c r="J47" s="7">
+        <f>_xlfn.XLOOKUP(J41,$P$30:$P$55,$Q$30:$Q$55,"Not Found",1,1)</f>
+        <v>25</v>
+      </c>
+      <c r="K47" s="7">
+        <f>_xlfn.XLOOKUP(K41,$P$30:$P$55,$Q$30:$Q$55,"Not Found",1,1)</f>
+        <v>23</v>
+      </c>
+      <c r="L47" s="7">
+        <f>_xlfn.XLOOKUP(L41,$P$30:$P$55,$Q$30:$Q$55,"Not Found",1,1)</f>
+        <v>25</v>
+      </c>
+      <c r="P47" s="18">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>17</v>
+      </c>
+      <c r="T47" s="21"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="F48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G48" s="4">
+        <v>16</v>
+      </c>
+      <c r="H48" s="4">
+        <v>20</v>
+      </c>
+      <c r="I48" s="4">
+        <v>20</v>
+      </c>
+      <c r="J48" s="4">
+        <v>20</v>
+      </c>
+      <c r="K48" s="4">
+        <v>20</v>
+      </c>
+      <c r="L48" s="4">
+        <v>20</v>
+      </c>
+      <c r="P48" s="17">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Q48" s="14">
+        <v>18</v>
+      </c>
+      <c r="T48" s="21"/>
+    </row>
+    <row r="49" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="5">
+        <f>INDEX($P$30:$P$55,MATCH(G48,$Q$30:$Q$55,0))</f>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="H49" s="5">
+        <f t="shared" ref="H49:L49" si="9">INDEX($P$30:$P$55,MATCH(H48,$Q$30:$Q$55,0))</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I49" s="5">
+        <f t="shared" si="9"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J49" s="5">
+        <f t="shared" si="9"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="K49" s="5">
+        <f t="shared" si="9"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="L49" s="5">
+        <f t="shared" si="9"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="P49" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>19</v>
+      </c>
+      <c r="T49" s="21"/>
+    </row>
+    <row r="50" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G46" t="s">
-        <v>45</v>
-      </c>
-      <c r="H46" t="s">
-        <v>45</v>
-      </c>
-      <c r="L46" t="s">
-        <v>45</v>
-      </c>
-      <c r="O46" t="s">
-        <v>50</v>
-      </c>
-      <c r="P46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="I47" t="s">
-        <v>53</v>
-      </c>
-      <c r="J47" t="s">
-        <v>53</v>
-      </c>
-      <c r="O47" t="s">
-        <v>51</v>
-      </c>
-      <c r="P47" t="s">
-        <v>48</v>
-      </c>
+      <c r="G50" s="22">
+        <f>(G34^2/4 - (G34-2*G49*25.4)^2/4)*PI()*G32*$C$32*1000^-3*1000</f>
+        <v>189.57510314714472</v>
+      </c>
+      <c r="H50" s="22">
+        <f t="shared" ref="H50:L50" si="10">(H34^2/4 - (H34-2*H49*25.4)^2/4)*PI()*H32*$C$32*1000^-3*1000</f>
+        <v>56.343432993886346</v>
+      </c>
+      <c r="I50" s="22">
+        <f t="shared" si="10"/>
+        <v>209.39081929803447</v>
+      </c>
+      <c r="J50" s="22">
+        <f t="shared" si="10"/>
+        <v>139.04859094010104</v>
+      </c>
+      <c r="K50" s="22">
+        <f t="shared" si="10"/>
+        <v>97.272153187558501</v>
+      </c>
+      <c r="L50" s="22">
+        <f t="shared" si="10"/>
+        <v>104.71373867731707</v>
+      </c>
+      <c r="P50" s="17">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="Q50" s="14">
+        <v>20</v>
+      </c>
+      <c r="T50" s="21"/>
+    </row>
+    <row r="51" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="P51" s="18">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="Q51" s="15">
+        <v>21</v>
+      </c>
+      <c r="T51" s="21"/>
+    </row>
+    <row r="52" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="P52" s="19">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="Q52" s="16">
+        <v>22</v>
+      </c>
+      <c r="T52" s="21"/>
+    </row>
+    <row r="53" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="P53" s="18">
+        <v>2.4E-2</v>
+      </c>
+      <c r="Q53" s="15">
+        <v>23</v>
+      </c>
+      <c r="T53" s="21"/>
+    </row>
+    <row r="54" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="P54" s="17">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q54" s="14">
+        <v>24</v>
+      </c>
+      <c r="T54" s="21"/>
+    </row>
+    <row r="55" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="P55" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="Q55" s="15">
+        <v>25</v>
+      </c>
+      <c r="T55" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1972,6 +2284,6 @@
     <mergeCell ref="I31:J31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>